--- a/Code/Results/Cases/Case_2_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_bus/vm_pu.xlsx
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057851</v>
+        <v>0.9571825583057852</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769893</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702914</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.970642461629057</v>
+        <v>0.9706424616290569</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922296</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9660706434537709</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9435740419925934</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9576541208834083</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689356</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411972</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088965216</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764519</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.933278105073729</v>
+        <v>0.9332781050737294</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782936</v>
+        <v>0.9494987508782939</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684966</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816591</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981064</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572514</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963313</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
+        <v>0.9475391330285313</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442547</v>
+        <v>0.9533716596442546</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9463835801718017</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.9598754494005832</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_bus/vm_pu.xlsx
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057852</v>
+        <v>0.9571825583057851</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769893</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702913</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290569</v>
+        <v>0.970642461629057</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922296</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537709</v>
+        <v>0.966070643453771</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925934</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834083</v>
+        <v>0.9576541208834081</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411972</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965214</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9490745509764514</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737294</v>
+        <v>0.933278105073729</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9494987508782936</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
+        <v>0.9546352493816592</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9488714019981065</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572514</v>
+        <v>0.9460223821572517</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963313</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285313</v>
+        <v>0.9475391330285317</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442546</v>
+        <v>0.9533716596442547</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.959875449400583</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_bus/vm_pu.xlsx
@@ -417,336 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.968520564717118</v>
+      </c>
+      <c r="D2">
+        <v>0.9925568916623283</v>
+      </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
+      <c r="F2">
+        <v>0.9436238244871678</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.031318696963085</v>
+      </c>
+      <c r="J2">
+        <v>0.9916853911380904</v>
+      </c>
+      <c r="K2">
+        <v>1.004120904085541</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
+      <c r="M2">
+        <v>0.9559287549906771</v>
+      </c>
+      <c r="N2">
+        <v>0.9930936981414106</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9773488079287819</v>
+      </c>
+      <c r="D3">
+        <v>0.999134211927466</v>
+      </c>
       <c r="E3">
-        <v>0.9571825583057851</v>
+        <v>0.9571825583057848</v>
+      </c>
+      <c r="F3">
+        <v>0.9555330501786163</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.033626279131878</v>
+      </c>
+      <c r="J3">
+        <v>0.9984766095008543</v>
+      </c>
+      <c r="K3">
+        <v>1.009778182673162</v>
+      </c>
       <c r="L3">
-        <v>0.9683942856474069</v>
+        <v>0.9683942856474066</v>
+      </c>
+      <c r="M3">
+        <v>0.9667683905548619</v>
+      </c>
+      <c r="N3">
+        <v>0.9998945608132134</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9828327661003503</v>
+      </c>
+      <c r="D4">
+        <v>1.003222337891604</v>
+      </c>
       <c r="E4">
-        <v>0.9600238894088614</v>
+        <v>0.9600238894088612</v>
+      </c>
+      <c r="F4">
+        <v>0.9629161163115202</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.035044382416378</v>
+      </c>
+      <c r="J4">
+        <v>1.0026860447188</v>
+      </c>
+      <c r="K4">
+        <v>1.013282027092231</v>
+      </c>
       <c r="L4">
-        <v>0.9706300002952758</v>
+        <v>0.9706300002952756</v>
+      </c>
+      <c r="M4">
+        <v>0.9734837222707818</v>
+      </c>
+      <c r="N4">
+        <v>1.004109973911997</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9850875918539985</v>
+      </c>
+      <c r="D5">
+        <v>1.004903643485033</v>
+      </c>
       <c r="E5">
         <v>0.9612062874769892</v>
       </c>
+      <c r="F5">
+        <v>0.9659490223537406</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.035623706015256</v>
+      </c>
+      <c r="J5">
+        <v>1.004414609122508</v>
+      </c>
+      <c r="K5">
+        <v>1.014720119535976</v>
       </c>
       <c r="L5">
         <v>0.9715596031702913</v>
+      </c>
+      <c r="M5">
+        <v>0.9762411354566533</v>
+      </c>
+      <c r="N5">
+        <v>1.005840993075427</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9854633273306523</v>
+      </c>
+      <c r="D6">
+        <v>1.005183828519822</v>
+      </c>
       <c r="E6">
         <v>0.9614041218017086</v>
       </c>
+      <c r="F6">
+        <v>0.9664542714646587</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.035720019177554</v>
+      </c>
+      <c r="J6">
+        <v>1.004702519207614</v>
+      </c>
+      <c r="K6">
+        <v>1.014959603735232</v>
       </c>
       <c r="L6">
         <v>0.9717150950965047</v>
+      </c>
+      <c r="M6">
+        <v>0.9767004182042935</v>
+      </c>
+      <c r="N6">
+        <v>1.006129312025878</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9828630891177008</v>
+      </c>
+      <c r="D7">
+        <v>1.003244946811345</v>
+      </c>
       <c r="E7">
-        <v>0.9600397355691358</v>
+        <v>0.9600397355691361</v>
+      </c>
+      <c r="F7">
+        <v>0.9629569130456221</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.035052188181828</v>
+      </c>
+      <c r="J7">
+        <v>1.002709299376207</v>
+      </c>
+      <c r="K7">
+        <v>1.013301376962196</v>
+      </c>
       <c r="L7">
-        <v>0.970642461629057</v>
+        <v>0.9706424616290571</v>
+      </c>
+      <c r="M7">
+        <v>0.9735208180768613</v>
+      </c>
+      <c r="N7">
+        <v>1.004133261593686</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9715540433580299</v>
+      </c>
+      <c r="D8">
+        <v>0.9948163036137866</v>
+      </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
+      </c>
+      <c r="F8">
+        <v>0.947719608901989</v>
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.03211481694559</v>
+      </c>
+      <c r="J8">
+        <v>0.9940208601529438</v>
+      </c>
+      <c r="K8">
+        <v>1.006066952238697</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
+      </c>
+      <c r="M8">
+        <v>0.9596576266119849</v>
+      </c>
+      <c r="N8">
+        <v>0.9954324837901475</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.949660839510032</v>
+      </c>
+      <c r="D9">
+        <v>0.978528883462409</v>
+      </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9435740419923924</v>
+      </c>
+      <c r="F9">
+        <v>0.9180541402465667</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.02630476949458</v>
+      </c>
+      <c r="J9">
+        <v>0.9771256198824324</v>
+      </c>
+      <c r="K9">
+        <v>0.9919801928922529</v>
+      </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9576541208832517</v>
+      </c>
+      <c r="M9">
+        <v>0.9326331212762063</v>
+      </c>
+      <c r="N9">
+        <v>0.9785132503405407</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9333772552121948</v>
+      </c>
+      <c r="D10">
+        <v>0.9664511867018537</v>
+      </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547164</v>
+      </c>
+      <c r="F10">
+        <v>0.8957926087734345</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.021904345540259</v>
+      </c>
+      <c r="J10">
+        <v>0.9645084262353208</v>
+      </c>
+      <c r="K10">
+        <v>0.9814537983228567</v>
+      </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689266</v>
+      </c>
+      <c r="M10">
+        <v>0.9123380584028814</v>
+      </c>
+      <c r="N10">
+        <v>0.9658781388312381</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.925817636482216</v>
+      </c>
+      <c r="D11">
+        <v>0.9608572598626532</v>
+      </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
+      <c r="F11">
+        <v>0.8853853980153241</v>
+      </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.019844212608234</v>
+      </c>
+      <c r="J11">
+        <v>0.9586388369341793</v>
+      </c>
+      <c r="K11">
+        <v>0.976557131924797</v>
+      </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9491556125416571</v>
+      </c>
+      <c r="M11">
+        <v>0.9028491259154747</v>
+      </c>
+      <c r="N11">
+        <v>0.9600002140400377</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9229212799119286</v>
+      </c>
+      <c r="D12">
+        <v>0.9587164554454358</v>
+      </c>
       <c r="E12">
-        <v>0.9316058186411972</v>
+        <v>0.9316058186411971</v>
+      </c>
+      <c r="F12">
+        <v>0.881384269004217</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.019052469771497</v>
+      </c>
+      <c r="J12">
+        <v>0.9563881626042287</v>
+      </c>
+      <c r="K12">
+        <v>0.9746797550855808</v>
+      </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252506</v>
+      </c>
+      <c r="M12">
+        <v>0.8992011801883286</v>
+      </c>
+      <c r="N12">
+        <v>0.9577463434943824</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9235467811808078</v>
+      </c>
+      <c r="D13">
+        <v>0.9591786691837889</v>
+      </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9318723593368228</v>
+      </c>
+      <c r="F13">
+        <v>0.8822490329620171</v>
       </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.019223562507158</v>
+      </c>
+      <c r="J13">
+        <v>0.9568743041493661</v>
+      </c>
+      <c r="K13">
+        <v>0.975085251043191</v>
       </c>
       <c r="L13">
         <v>0.9483836088965214</v>
+      </c>
+      <c r="M13">
+        <v>0.8999895984437836</v>
+      </c>
+      <c r="N13">
+        <v>0.9582331754162748</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9255801050808762</v>
+      </c>
+      <c r="D14">
+        <v>0.960681639727142</v>
+      </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194317</v>
+      </c>
+      <c r="F14">
+        <v>0.8850575609307328</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.019779329603171</v>
+      </c>
+      <c r="J14">
+        <v>0.9584542952456481</v>
+      </c>
+      <c r="K14">
+        <v>0.9764031924222647</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
+      </c>
+      <c r="M14">
+        <v>0.9025502223831887</v>
+      </c>
+      <c r="N14">
+        <v>0.959815410281141</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9268207858114738</v>
+      </c>
+      <c r="D15">
+        <v>0.9615990447751166</v>
+      </c>
       <c r="E15">
-        <v>0.933278105073729</v>
+        <v>0.9332781050717474</v>
+      </c>
+      <c r="F15">
+        <v>0.8867693534604201</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.020118130959965</v>
+      </c>
+      <c r="J15">
+        <v>0.9594181245948853</v>
+      </c>
+      <c r="K15">
+        <v>0.9772072025153381</v>
+      </c>
       <c r="L15">
-        <v>0.9494987508782936</v>
+        <v>0.9494987508767193</v>
+      </c>
+      <c r="M15">
+        <v>0.904110946963973</v>
+      </c>
+      <c r="N15">
+        <v>0.9607806083786072</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9338672869251957</v>
+      </c>
+      <c r="D16">
+        <v>0.9668141023771132</v>
+      </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017257</v>
+      </c>
+      <c r="F16">
+        <v>0.8964655237660608</v>
       </c>
       <c r="G16">
         <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.022037547739307</v>
+      </c>
+      <c r="J16">
+        <v>0.9648886584836585</v>
+      </c>
+      <c r="K16">
+        <v>0.9817710253110853</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0.9129516008117864</v>
+      </c>
+      <c r="N16">
+        <v>0.9662589110529812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9381435736436852</v>
+      </c>
+      <c r="D17">
+        <v>0.9699826095964803</v>
+      </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.938276015685567</v>
+      </c>
+      <c r="F17">
+        <v>0.9023294427084775</v>
       </c>
       <c r="G17">
         <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.023198041672577</v>
+      </c>
+      <c r="J17">
+        <v>0.9682054310630158</v>
+      </c>
+      <c r="K17">
+        <v>0.9845382509590223</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0.9182980465309786</v>
+      </c>
+      <c r="N17">
+        <v>0.9695803938298403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.940589710930931</v>
+      </c>
+      <c r="D18">
+        <v>0.9717962514932954</v>
+      </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9393832867215685</v>
+      </c>
+      <c r="F18">
+        <v>0.9056772690340197</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.023860265990577</v>
+      </c>
+      <c r="J18">
+        <v>0.9701015875877509</v>
+      </c>
+      <c r="K18">
+        <v>0.9861202497837934</v>
+      </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.9543373515865726</v>
+      </c>
+      <c r="M18">
+        <v>0.9213503190784924</v>
+      </c>
+      <c r="N18">
+        <v>0.9714792431143331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9414159327832085</v>
+      </c>
+      <c r="D19">
+        <v>0.9724090261979266</v>
+      </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814680091</v>
+      </c>
+      <c r="F19">
+        <v>0.9068070250603288</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.024083666168099</v>
+      </c>
+      <c r="J19">
+        <v>0.9707418554367921</v>
+      </c>
+      <c r="K19">
+        <v>0.9866544341013364</v>
+      </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9546352493812711</v>
+      </c>
+      <c r="M19">
+        <v>0.9223803101021755</v>
+      </c>
+      <c r="N19">
+        <v>0.9721204202171594</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9376898262864093</v>
+      </c>
+      <c r="D20">
+        <v>0.96964628030349</v>
+      </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660141</v>
+      </c>
+      <c r="F20">
+        <v>0.9017079276997826</v>
       </c>
       <c r="G20">
         <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.02307507051277</v>
+      </c>
+      <c r="J20">
+        <v>0.9678536119534703</v>
+      </c>
+      <c r="K20">
+        <v>0.9842447213892465</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0.9177313888297235</v>
+      </c>
+      <c r="N20">
+        <v>0.9692280750968052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9249838920123044</v>
+      </c>
+      <c r="D21">
+        <v>0.9602408669182521</v>
+      </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
+      <c r="F21">
+        <v>0.8842344453554104</v>
+      </c>
       <c r="G21">
         <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.019616432308923</v>
+      </c>
+      <c r="J21">
+        <v>0.9579910590511725</v>
+      </c>
+      <c r="K21">
+        <v>0.9760167782391812</v>
       </c>
       <c r="L21">
         <v>0.9488714019981065</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0.9017997550805913</v>
+      </c>
+      <c r="N21">
+        <v>0.9593515162381355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9164755914831659</v>
+      </c>
+      <c r="D22">
+        <v>0.9539572925483213</v>
+      </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
+      </c>
+      <c r="F22">
+        <v>0.8724504540392312</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.017286169155335</v>
+      </c>
+      <c r="J22">
+        <v>0.9513759808150241</v>
+      </c>
+      <c r="K22">
+        <v>0.9704995800012371</v>
+      </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9460223821572518</v>
+      </c>
+      <c r="M22">
+        <v>0.8910566453812021</v>
+      </c>
+      <c r="N22">
+        <v>0.9527270438321315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9210400566069448</v>
+      </c>
+      <c r="D23">
+        <v>0.9573267222633375</v>
+      </c>
       <c r="E23">
-        <v>0.9308081199963313</v>
+        <v>0.9308081199963314</v>
+      </c>
+      <c r="F23">
+        <v>0.8787811649581373</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.018537557259271</v>
+      </c>
+      <c r="J23">
+        <v>0.9549257997800168</v>
+      </c>
+      <c r="K23">
+        <v>0.9734600336767574</v>
+      </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9475391330285318</v>
+      </c>
+      <c r="M23">
+        <v>0.8968279405295614</v>
+      </c>
+      <c r="N23">
+        <v>0.9562819039472243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9378950031051185</v>
+      </c>
+      <c r="D24">
+        <v>0.969798359029539</v>
+      </c>
       <c r="E24">
-        <v>0.9381640424011831</v>
+        <v>0.9381640424011709</v>
+      </c>
+      <c r="F24">
+        <v>0.9019889861579597</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.023130680988591</v>
+      </c>
+      <c r="J24">
+        <v>0.9680127020325859</v>
+      </c>
+      <c r="K24">
+        <v>0.9843774533349737</v>
+      </c>
       <c r="L24">
-        <v>0.9533716596442547</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.953371659644245</v>
+      </c>
+      <c r="M24">
+        <v>0.9179876403757603</v>
+      </c>
+      <c r="N24">
+        <v>0.9693873911020811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9555873032957906</v>
+      </c>
+      <c r="D25">
+        <v>0.982933019735428</v>
+      </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9463835801717732</v>
+      </c>
+      <c r="F25">
+        <v>0.9261108209533296</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.027891194767165</v>
+      </c>
+      <c r="J25">
+        <v>0.9817076923952816</v>
+      </c>
+      <c r="K25">
+        <v>0.9958021854088694</v>
+      </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.959875449400561</v>
+      </c>
+      <c r="M25">
+        <v>0.9399757858399792</v>
+      </c>
+      <c r="N25">
+        <v>0.983101829921929</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.968520564717118</v>
+        <v>1.014071707743663</v>
       </c>
       <c r="D2">
-        <v>0.9925568916623283</v>
+        <v>1.031417011376507</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.026972151180156</v>
       </c>
       <c r="F2">
-        <v>0.9436238244871678</v>
+        <v>1.035753262703277</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031318696963085</v>
+        <v>1.048113258626367</v>
       </c>
       <c r="J2">
-        <v>0.9916853911380904</v>
+        <v>1.035839530723339</v>
       </c>
       <c r="K2">
-        <v>1.004120904085541</v>
+        <v>1.042455343731307</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.038068087150701</v>
       </c>
       <c r="M2">
-        <v>0.9559287549906771</v>
+        <v>1.046735994264976</v>
       </c>
       <c r="N2">
-        <v>0.9930936981414106</v>
+        <v>1.037310541669429</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9773488079287819</v>
+        <v>1.017896110633159</v>
       </c>
       <c r="D3">
-        <v>0.999134211927466</v>
+        <v>1.034284528972537</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.030683547614824</v>
       </c>
       <c r="F3">
-        <v>0.9555330501786163</v>
+        <v>1.039389603520969</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033626279131878</v>
+        <v>1.049140898826205</v>
       </c>
       <c r="J3">
-        <v>0.9984766095008543</v>
+        <v>1.037910520124662</v>
       </c>
       <c r="K3">
-        <v>1.009778182673162</v>
+        <v>1.044496749651793</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.040938320720461</v>
       </c>
       <c r="M3">
-        <v>0.9667683905548619</v>
+        <v>1.049542122847747</v>
       </c>
       <c r="N3">
-        <v>0.9998945608132134</v>
+        <v>1.03938447211324</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9828327661003503</v>
+        <v>1.020325713715279</v>
       </c>
       <c r="D4">
-        <v>1.003222337891604</v>
+        <v>1.036109503819096</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.033050396042866</v>
       </c>
       <c r="F4">
-        <v>0.9629161163115202</v>
+        <v>1.041706672933853</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035044382416378</v>
+        <v>1.049785656948029</v>
       </c>
       <c r="J4">
-        <v>1.0026860447188</v>
+        <v>1.039223398729503</v>
       </c>
       <c r="K4">
-        <v>1.013282027092231</v>
+        <v>1.045790809409847</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.042765647415602</v>
       </c>
       <c r="M4">
-        <v>0.9734837222707818</v>
+        <v>1.051326502487119</v>
       </c>
       <c r="N4">
-        <v>1.004109973911997</v>
+        <v>1.040699215156289</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9850875918539985</v>
+        <v>1.021336658502185</v>
       </c>
       <c r="D5">
-        <v>1.004903643485033</v>
+        <v>1.036869613298202</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.034037376566834</v>
       </c>
       <c r="F5">
-        <v>0.9659490223537406</v>
+        <v>1.042672432854906</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035623706015256</v>
+        <v>1.050051966084222</v>
       </c>
       <c r="J5">
-        <v>1.004414609122508</v>
+        <v>1.039768983358285</v>
       </c>
       <c r="K5">
-        <v>1.014720119535976</v>
+        <v>1.046328552346627</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>1.043526898809775</v>
       </c>
       <c r="M5">
-        <v>0.9762411354566533</v>
+        <v>1.052069346811665</v>
       </c>
       <c r="N5">
-        <v>1.005840993075427</v>
+        <v>1.041245574577822</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9854633273306523</v>
+        <v>1.021505796310134</v>
       </c>
       <c r="D6">
-        <v>1.005183828519822</v>
+        <v>1.036996827535086</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>1.034202630645372</v>
       </c>
       <c r="F6">
-        <v>0.9664542714646587</v>
+        <v>1.042834106599146</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035720019177554</v>
+        <v>1.050096404650299</v>
       </c>
       <c r="J6">
-        <v>1.004702519207614</v>
+        <v>1.039860221601245</v>
       </c>
       <c r="K6">
-        <v>1.014959603735232</v>
+        <v>1.046418477807756</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>1.043654314072998</v>
       </c>
       <c r="M6">
-        <v>0.9767004182042935</v>
+        <v>1.052193650768446</v>
       </c>
       <c r="N6">
-        <v>1.006129312025878</v>
+        <v>1.041336942389553</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9828630891177008</v>
+        <v>1.020339262692758</v>
       </c>
       <c r="D7">
-        <v>1.003244946811345</v>
+        <v>1.036119688126742</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>1.033063615391018</v>
       </c>
       <c r="F7">
-        <v>0.9629569130456221</v>
+        <v>1.041719609888604</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035052188181828</v>
+        <v>1.049789233923486</v>
       </c>
       <c r="J7">
-        <v>1.002709299376207</v>
+        <v>1.039230713599842</v>
       </c>
       <c r="K7">
-        <v>1.013301376962196</v>
+        <v>1.04579801923495</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>1.042775846365568</v>
       </c>
       <c r="M7">
-        <v>0.9735208180768613</v>
+        <v>1.05133645686582</v>
       </c>
       <c r="N7">
-        <v>1.004133261593686</v>
+        <v>1.040706540414582</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9715540433580299</v>
+        <v>1.015373707342356</v>
       </c>
       <c r="D8">
-        <v>0.9948163036137866</v>
+        <v>1.032392535833839</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>1.028233773051887</v>
       </c>
       <c r="F8">
-        <v>0.947719608901989</v>
+        <v>1.036989768469353</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03211481694559</v>
+        <v>1.04846478946301</v>
       </c>
       <c r="J8">
-        <v>0.9940208601529438</v>
+        <v>1.036545159537396</v>
       </c>
       <c r="K8">
-        <v>1.006066952238697</v>
+        <v>1.043150902877031</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.039044413072235</v>
       </c>
       <c r="M8">
-        <v>0.9596576266119849</v>
+        <v>1.047690958772378</v>
       </c>
       <c r="N8">
-        <v>0.9954324837901475</v>
+        <v>1.038017172557331</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.949660839510032</v>
+        <v>1.006263607069119</v>
       </c>
       <c r="D9">
-        <v>0.978528883462409</v>
+        <v>1.025582201488836</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>1.019445304765282</v>
       </c>
       <c r="F9">
-        <v>0.9180541402465667</v>
+        <v>1.028368362934299</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02630476949458</v>
+        <v>1.045972172919901</v>
       </c>
       <c r="J9">
-        <v>0.9771256198824324</v>
+        <v>1.03159710369169</v>
       </c>
       <c r="K9">
-        <v>0.9919801928922529</v>
+        <v>1.038273425907727</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>1.032230581194667</v>
       </c>
       <c r="M9">
-        <v>0.9326331212762063</v>
+        <v>1.041017359520334</v>
       </c>
       <c r="N9">
-        <v>0.9785132503405407</v>
+        <v>1.033062089904773</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9333772552121948</v>
+        <v>0.9999257027822278</v>
       </c>
       <c r="D10">
-        <v>0.9664511867018537</v>
+        <v>1.020865636921543</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547164</v>
+        <v>1.013381898047939</v>
       </c>
       <c r="F10">
-        <v>0.8957926087734345</v>
+        <v>1.022410370226722</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021904345540259</v>
+        <v>1.04419761349243</v>
       </c>
       <c r="J10">
-        <v>0.9645084262353208</v>
+        <v>1.02814226880031</v>
       </c>
       <c r="K10">
-        <v>0.9814537983228567</v>
+        <v>1.034868105625161</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689266</v>
+        <v>1.027513669807237</v>
       </c>
       <c r="M10">
-        <v>0.9123380584028814</v>
+        <v>1.036386453631478</v>
       </c>
       <c r="N10">
-        <v>0.9658781388312381</v>
+        <v>1.029602348751573</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.925817636482216</v>
+        <v>0.9971132557456944</v>
       </c>
       <c r="D11">
-        <v>0.9608572598626532</v>
+        <v>1.018778350573431</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>1.010703686809702</v>
       </c>
       <c r="F11">
-        <v>0.8853853980153241</v>
+        <v>1.019776432763479</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019844212608234</v>
+        <v>1.043401005268625</v>
       </c>
       <c r="J11">
-        <v>0.9586388369341793</v>
+        <v>1.026606621724189</v>
       </c>
       <c r="K11">
-        <v>0.976557131924797</v>
+        <v>1.033354615682695</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>1.02542653139307</v>
       </c>
       <c r="M11">
-        <v>0.9028491259154747</v>
+        <v>1.034334789057008</v>
       </c>
       <c r="N11">
-        <v>0.9600002140400377</v>
+        <v>1.028064520880463</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9229212799119286</v>
+        <v>0.9960578736532687</v>
       </c>
       <c r="D12">
-        <v>0.9587164554454358</v>
+        <v>1.017995997580914</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>1.009700580180699</v>
       </c>
       <c r="F12">
-        <v>0.881384269004217</v>
+        <v>1.018789568963392</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019052469771497</v>
+        <v>1.043100739461873</v>
       </c>
       <c r="J12">
-        <v>0.9563881626042287</v>
+        <v>1.02603001348774</v>
       </c>
       <c r="K12">
-        <v>0.9746797550855808</v>
+        <v>1.032786357525709</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>1.02464426265162</v>
       </c>
       <c r="M12">
-        <v>0.8992011801883286</v>
+        <v>1.033565431814339</v>
       </c>
       <c r="N12">
-        <v>0.9577463434943824</v>
+        <v>1.02748709379418</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9235467811808078</v>
+        <v>0.9962847496112347</v>
       </c>
       <c r="D13">
-        <v>0.9591786691837889</v>
+        <v>1.018164138343923</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368228</v>
+        <v>1.009916131864944</v>
       </c>
       <c r="F13">
-        <v>0.8822490329620171</v>
+        <v>1.019001645607591</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019223562507158</v>
+        <v>1.043165347445149</v>
       </c>
       <c r="J13">
-        <v>0.9568743041493661</v>
+        <v>1.026153982487419</v>
       </c>
       <c r="K13">
-        <v>0.975085251043191</v>
+        <v>1.032908529772073</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>1.024812384274326</v>
       </c>
       <c r="M13">
-        <v>0.8999895984437836</v>
+        <v>1.033730795866066</v>
       </c>
       <c r="N13">
-        <v>0.9582331754162748</v>
+        <v>1.027611238844058</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9255801050808762</v>
+        <v>0.9970262389938804</v>
       </c>
       <c r="D14">
-        <v>0.960681639727142</v>
+        <v>1.018713826379447</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>1.010620941283413</v>
       </c>
       <c r="F14">
-        <v>0.8850575609307328</v>
+        <v>1.019695033982952</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019779329603171</v>
+        <v>1.043376275137754</v>
       </c>
       <c r="J14">
-        <v>0.9584542952456481</v>
+        <v>1.02655908702642</v>
       </c>
       <c r="K14">
-        <v>0.9764031924222647</v>
+        <v>1.033307768684789</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>1.025362013658025</v>
       </c>
       <c r="M14">
-        <v>0.9025502223831887</v>
+        <v>1.034271343995733</v>
       </c>
       <c r="N14">
-        <v>0.959815410281141</v>
+        <v>1.02801691867797</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9268207858114738</v>
+        <v>0.9974816604088351</v>
       </c>
       <c r="D15">
-        <v>0.9615990447751166</v>
+        <v>1.01905156544908</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>1.011054086126348</v>
       </c>
       <c r="F15">
-        <v>0.8867693534604201</v>
+        <v>1.020121115229386</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020118130959965</v>
+        <v>1.043505651517748</v>
       </c>
       <c r="J15">
-        <v>0.9594181245948853</v>
+        <v>1.026807856294077</v>
       </c>
       <c r="K15">
-        <v>0.9772072025153381</v>
+        <v>1.033552940218879</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>1.025699719995962</v>
       </c>
       <c r="M15">
-        <v>0.904110946963973</v>
+        <v>1.034603419960151</v>
       </c>
       <c r="N15">
-        <v>0.9607806083786072</v>
+        <v>1.028266041226522</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9338672869251957</v>
+        <v>1.00011088033257</v>
       </c>
       <c r="D16">
-        <v>0.9668141023771132</v>
+        <v>1.021003191638946</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017257</v>
+        <v>1.013558499494857</v>
       </c>
       <c r="F16">
-        <v>0.8964655237660608</v>
+        <v>1.022584004784323</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022037547739307</v>
+        <v>1.044249876305599</v>
       </c>
       <c r="J16">
-        <v>0.9648886584836585</v>
+        <v>1.028243328523531</v>
       </c>
       <c r="K16">
-        <v>0.9817710253110853</v>
+        <v>1.034967710981485</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>1.027651219684399</v>
       </c>
       <c r="M16">
-        <v>0.9129516008117864</v>
+        <v>1.036521612034837</v>
       </c>
       <c r="N16">
-        <v>0.9662589110529812</v>
+        <v>1.029703551991193</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9381435736436852</v>
+        <v>1.001741557352193</v>
       </c>
       <c r="D17">
-        <v>0.9699826095964803</v>
+        <v>1.022215156530835</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>1.015115076570235</v>
       </c>
       <c r="F17">
-        <v>0.9023294427084775</v>
+        <v>1.02411417047613</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023198041672577</v>
+        <v>1.044709065154962</v>
       </c>
       <c r="J17">
-        <v>0.9682054310630158</v>
+        <v>1.02913297419739</v>
       </c>
       <c r="K17">
-        <v>0.9845382509590223</v>
+        <v>1.035844571484612</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>1.028863174360486</v>
       </c>
       <c r="M17">
-        <v>0.9182980465309786</v>
+        <v>1.037712200958464</v>
       </c>
       <c r="N17">
-        <v>0.9695803938298403</v>
+        <v>1.030594461063952</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.940589710930931</v>
+        <v>1.002686167850742</v>
       </c>
       <c r="D18">
-        <v>0.9717962514932954</v>
+        <v>1.022917754927596</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>1.016017942008206</v>
       </c>
       <c r="F18">
-        <v>0.9056772690340197</v>
+        <v>1.025001498057563</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023860265990577</v>
+        <v>1.044974189435696</v>
       </c>
       <c r="J18">
-        <v>0.9701015875877509</v>
+        <v>1.029648077689406</v>
       </c>
       <c r="K18">
-        <v>0.9861202497837934</v>
+        <v>1.036352285911708</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>1.029565796648868</v>
       </c>
       <c r="M18">
-        <v>0.9213503190784924</v>
+        <v>1.038402190443459</v>
       </c>
       <c r="N18">
-        <v>0.9714792431143331</v>
+        <v>1.031110296062011</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9414159327832085</v>
+        <v>1.003007161265274</v>
       </c>
       <c r="D19">
-        <v>0.9724090261979266</v>
+        <v>1.023156598402452</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680091</v>
+        <v>1.016324948782535</v>
       </c>
       <c r="F19">
-        <v>0.9068070250603288</v>
+        <v>1.025303184234718</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024083666168099</v>
+        <v>1.045064133693899</v>
       </c>
       <c r="J19">
-        <v>0.9707418554367921</v>
+        <v>1.029823075158836</v>
       </c>
       <c r="K19">
-        <v>0.9866544341013364</v>
+        <v>1.036524775130331</v>
       </c>
       <c r="L19">
-        <v>0.9546352493812711</v>
+        <v>1.029804653790256</v>
       </c>
       <c r="M19">
-        <v>0.9223803101021755</v>
+        <v>1.038636711186985</v>
       </c>
       <c r="N19">
-        <v>0.9721204202171594</v>
+        <v>1.031285542047919</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9376898262864093</v>
+        <v>1.001567280578433</v>
       </c>
       <c r="D20">
-        <v>0.96964628030349</v>
+        <v>1.022085573030155</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>1.014948596602167</v>
       </c>
       <c r="F20">
-        <v>0.9017079276997826</v>
+        <v>1.02395053788344</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02307507051277</v>
+        <v>1.044660080061834</v>
       </c>
       <c r="J20">
-        <v>0.9678536119534703</v>
+        <v>1.029037919590098</v>
       </c>
       <c r="K20">
-        <v>0.9842447213892465</v>
+        <v>1.035750881454126</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.028733588977535</v>
       </c>
       <c r="M20">
-        <v>0.9177313888297235</v>
+        <v>1.037584925552935</v>
       </c>
       <c r="N20">
-        <v>0.9692280750968052</v>
+        <v>1.030499271468216</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9249838920123044</v>
+        <v>0.99680818864099</v>
       </c>
       <c r="D21">
-        <v>0.9602408669182521</v>
+        <v>1.018552153702307</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>1.010413624743921</v>
       </c>
       <c r="F21">
-        <v>0.8842344453554104</v>
+        <v>1.019491086214798</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019616432308923</v>
+        <v>1.043314283918107</v>
       </c>
       <c r="J21">
-        <v>0.9579910590511725</v>
+        <v>1.026439966989843</v>
       </c>
       <c r="K21">
-        <v>0.9760167782391812</v>
+        <v>1.03319037251574</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>1.025200357572051</v>
       </c>
       <c r="M21">
-        <v>0.9017997550805913</v>
+        <v>1.034112369427059</v>
       </c>
       <c r="N21">
-        <v>0.9593515162381355</v>
+        <v>1.027897629477278</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9164755914831659</v>
+        <v>0.9937537098600198</v>
       </c>
       <c r="D22">
-        <v>0.9539572925483213</v>
+        <v>1.016289658364645</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>1.007514084890303</v>
       </c>
       <c r="F22">
-        <v>0.8724504540392312</v>
+        <v>1.016637859561472</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017286169155335</v>
+        <v>1.042442774042953</v>
       </c>
       <c r="J22">
-        <v>0.9513759808150241</v>
+        <v>1.024770528224407</v>
       </c>
       <c r="K22">
-        <v>0.9704995800012371</v>
+        <v>1.031545176660177</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>1.022938141635516</v>
       </c>
       <c r="M22">
-        <v>0.8910566453812021</v>
+        <v>1.031886768977543</v>
       </c>
       <c r="N22">
-        <v>0.9527270438321315</v>
+        <v>1.026225819917308</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9210400566069448</v>
+        <v>0.9953790164237769</v>
       </c>
       <c r="D23">
-        <v>0.9573267222633375</v>
+        <v>1.017493025146221</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>1.009055889102358</v>
       </c>
       <c r="F23">
-        <v>0.8787811649581373</v>
+        <v>1.018155221899399</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018537557259271</v>
+        <v>1.042907227125736</v>
       </c>
       <c r="J23">
-        <v>0.9549257997800168</v>
+        <v>1.025659025366387</v>
       </c>
       <c r="K23">
-        <v>0.9734600336767574</v>
+        <v>1.032420751458987</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>1.024141350407987</v>
       </c>
       <c r="M23">
-        <v>0.8968279405295614</v>
+        <v>1.033070712435771</v>
       </c>
       <c r="N23">
-        <v>0.9562819039472243</v>
+        <v>1.027115578827142</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9378950031051185</v>
+        <v>1.001646048913677</v>
       </c>
       <c r="D24">
-        <v>0.969798359029539</v>
+        <v>1.022144139566971</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>1.015023837342554</v>
       </c>
       <c r="F24">
-        <v>0.9019889861579597</v>
+        <v>1.024024492427292</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023130680988591</v>
+        <v>1.044682222690809</v>
       </c>
       <c r="J24">
-        <v>0.9680127020325859</v>
+        <v>1.029080882438012</v>
       </c>
       <c r="K24">
-        <v>0.9843774533349737</v>
+        <v>1.03579322749834</v>
       </c>
       <c r="L24">
-        <v>0.953371659644245</v>
+        <v>1.028792156271437</v>
       </c>
       <c r="M24">
-        <v>0.9179876403757603</v>
+        <v>1.037642449594433</v>
       </c>
       <c r="N24">
-        <v>0.9693873911020811</v>
+        <v>1.030542295328302</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9555873032957906</v>
+        <v>1.008663693269634</v>
       </c>
       <c r="D25">
-        <v>0.982933019735428</v>
+        <v>1.027372906598387</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717732</v>
+        <v>1.021752010693635</v>
       </c>
       <c r="F25">
-        <v>0.9261108209533296</v>
+        <v>1.030632943981727</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027891194767165</v>
+        <v>1.046635993551839</v>
       </c>
       <c r="J25">
-        <v>0.9817076923952816</v>
+        <v>1.032902966426435</v>
       </c>
       <c r="K25">
-        <v>0.9958021854088694</v>
+        <v>1.039560650750854</v>
       </c>
       <c r="L25">
-        <v>0.959875449400561</v>
+        <v>1.03402178466051</v>
       </c>
       <c r="M25">
-        <v>0.9399757858399792</v>
+        <v>1.042773631306218</v>
       </c>
       <c r="N25">
-        <v>0.983101829921929</v>
+        <v>1.034369807114386</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014071707743663</v>
+        <v>1.038386164815461</v>
       </c>
       <c r="D2">
-        <v>1.031417011376507</v>
+        <v>1.045851041287301</v>
       </c>
       <c r="E2">
-        <v>1.026972151180156</v>
+        <v>1.053256060915684</v>
       </c>
       <c r="F2">
-        <v>1.035753262703277</v>
+        <v>1.05892530057322</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048113258626367</v>
+        <v>1.039873480429175</v>
       </c>
       <c r="J2">
-        <v>1.035839530723339</v>
+        <v>1.043483884721495</v>
       </c>
       <c r="K2">
-        <v>1.042455343731307</v>
+        <v>1.048618122783219</v>
       </c>
       <c r="L2">
-        <v>1.038068087150701</v>
+        <v>1.056002532289689</v>
       </c>
       <c r="M2">
-        <v>1.046735994264976</v>
+        <v>1.061656203973915</v>
       </c>
       <c r="N2">
-        <v>1.037310541669429</v>
+        <v>1.044965751527075</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017896110633159</v>
+        <v>1.039199336134313</v>
       </c>
       <c r="D3">
-        <v>1.034284528972537</v>
+        <v>1.046489036361063</v>
       </c>
       <c r="E3">
-        <v>1.030683547614824</v>
+        <v>1.054132573153599</v>
       </c>
       <c r="F3">
-        <v>1.039389603520969</v>
+        <v>1.059770038747412</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049140898826205</v>
+        <v>1.040047423652195</v>
       </c>
       <c r="J3">
-        <v>1.037910520124662</v>
+        <v>1.043942511211551</v>
       </c>
       <c r="K3">
-        <v>1.044496749651793</v>
+        <v>1.049068093421251</v>
       </c>
       <c r="L3">
-        <v>1.040938320720461</v>
+        <v>1.056691890253293</v>
       </c>
       <c r="M3">
-        <v>1.049542122847747</v>
+        <v>1.062314993400018</v>
       </c>
       <c r="N3">
-        <v>1.03938447211324</v>
+        <v>1.045425029319351</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020325713715279</v>
+        <v>1.039726095241533</v>
       </c>
       <c r="D4">
-        <v>1.036109503819096</v>
+        <v>1.046902410562692</v>
       </c>
       <c r="E4">
-        <v>1.033050396042866</v>
+        <v>1.054701169430197</v>
       </c>
       <c r="F4">
-        <v>1.041706672933853</v>
+        <v>1.06031780566552</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049785656948029</v>
+        <v>1.040159084803811</v>
       </c>
       <c r="J4">
-        <v>1.039223398729503</v>
+        <v>1.044239175539035</v>
       </c>
       <c r="K4">
-        <v>1.045790809409847</v>
+        <v>1.049359113278943</v>
       </c>
       <c r="L4">
-        <v>1.042765647415602</v>
+        <v>1.05713874290285</v>
       </c>
       <c r="M4">
-        <v>1.051326502487119</v>
+        <v>1.06274178966017</v>
       </c>
       <c r="N4">
-        <v>1.040699215156289</v>
+        <v>1.045722114944208</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021336658502185</v>
+        <v>1.039947682615582</v>
       </c>
       <c r="D5">
-        <v>1.036869613298202</v>
+        <v>1.047076322650875</v>
       </c>
       <c r="E5">
-        <v>1.034037376566834</v>
+        <v>1.054940548728408</v>
       </c>
       <c r="F5">
-        <v>1.042672432854906</v>
+        <v>1.060548363773083</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050051966084222</v>
+        <v>1.040205812964704</v>
       </c>
       <c r="J5">
-        <v>1.039768983358285</v>
+        <v>1.044363868577386</v>
       </c>
       <c r="K5">
-        <v>1.046328552346627</v>
+        <v>1.049481422909743</v>
       </c>
       <c r="L5">
-        <v>1.043526898809775</v>
+        <v>1.057326787721873</v>
       </c>
       <c r="M5">
-        <v>1.052069346811665</v>
+        <v>1.06292133656277</v>
       </c>
       <c r="N5">
-        <v>1.041245574577822</v>
+        <v>1.045846985060976</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021505796310134</v>
+        <v>1.03998489614469</v>
       </c>
       <c r="D6">
-        <v>1.036996827535086</v>
+        <v>1.047105530801851</v>
       </c>
       <c r="E6">
-        <v>1.034202630645372</v>
+        <v>1.054980761530808</v>
       </c>
       <c r="F6">
-        <v>1.042834106599146</v>
+        <v>1.060587091673906</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050096404650299</v>
+        <v>1.040213646248125</v>
       </c>
       <c r="J6">
-        <v>1.039860221601245</v>
+        <v>1.04438480360538</v>
       </c>
       <c r="K6">
-        <v>1.046418477807756</v>
+        <v>1.049501957137689</v>
       </c>
       <c r="L6">
-        <v>1.043654314072998</v>
+        <v>1.057358372249436</v>
       </c>
       <c r="M6">
-        <v>1.052193650768446</v>
+        <v>1.062951490369721</v>
       </c>
       <c r="N6">
-        <v>1.041336942389553</v>
+        <v>1.045867949819111</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020339262692758</v>
+        <v>1.039729055563356</v>
       </c>
       <c r="D7">
-        <v>1.036119688126742</v>
+        <v>1.046904733877644</v>
       </c>
       <c r="E7">
-        <v>1.033063615391018</v>
+        <v>1.054704366688966</v>
       </c>
       <c r="F7">
-        <v>1.041719609888604</v>
+        <v>1.060320885308698</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049789233923486</v>
+        <v>1.040159710030267</v>
       </c>
       <c r="J7">
-        <v>1.039230713599842</v>
+        <v>1.044240841791933</v>
       </c>
       <c r="K7">
-        <v>1.04579801923495</v>
+        <v>1.04936074772584</v>
       </c>
       <c r="L7">
-        <v>1.042775846365568</v>
+        <v>1.057141254830394</v>
       </c>
       <c r="M7">
-        <v>1.05133645686582</v>
+        <v>1.06274418829832</v>
       </c>
       <c r="N7">
-        <v>1.040706540414582</v>
+        <v>1.045723783563376</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015373707342356</v>
+        <v>1.038660858156393</v>
       </c>
       <c r="D8">
-        <v>1.032392535833839</v>
+        <v>1.046066540014555</v>
       </c>
       <c r="E8">
-        <v>1.028233773051887</v>
+        <v>1.053551984193948</v>
       </c>
       <c r="F8">
-        <v>1.036989768469353</v>
+        <v>1.059210541424106</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04846478946301</v>
+        <v>1.039932449575051</v>
       </c>
       <c r="J8">
-        <v>1.036545159537396</v>
+        <v>1.043638899158239</v>
       </c>
       <c r="K8">
-        <v>1.043150902877031</v>
+        <v>1.048770220925311</v>
       </c>
       <c r="L8">
-        <v>1.039044413072235</v>
+        <v>1.056235339082243</v>
       </c>
       <c r="M8">
-        <v>1.047690958772378</v>
+        <v>1.061878737228453</v>
       </c>
       <c r="N8">
-        <v>1.038017172557331</v>
+        <v>1.045120986102098</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006263607069119</v>
+        <v>1.036783097324744</v>
       </c>
       <c r="D9">
-        <v>1.025582201488836</v>
+        <v>1.044593817186431</v>
       </c>
       <c r="E9">
-        <v>1.019445304765282</v>
+        <v>1.051532409447836</v>
       </c>
       <c r="F9">
-        <v>1.028368362934299</v>
+        <v>1.057262981986295</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045972172919901</v>
+        <v>1.039525189017308</v>
       </c>
       <c r="J9">
-        <v>1.03159710369169</v>
+        <v>1.042577506988299</v>
       </c>
       <c r="K9">
-        <v>1.038273425907727</v>
+        <v>1.047728613342663</v>
       </c>
       <c r="L9">
-        <v>1.032230581194667</v>
+        <v>1.05464513732987</v>
       </c>
       <c r="M9">
-        <v>1.041017359520334</v>
+        <v>1.060357722400386</v>
       </c>
       <c r="N9">
-        <v>1.033062089904773</v>
+        <v>1.044058086633534</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9999257027822278</v>
+        <v>1.035534410236522</v>
       </c>
       <c r="D10">
-        <v>1.020865636921543</v>
+        <v>1.043614987919598</v>
       </c>
       <c r="E10">
-        <v>1.013381898047939</v>
+        <v>1.050193585366168</v>
       </c>
       <c r="F10">
-        <v>1.022410370226722</v>
+        <v>1.055970783412089</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04419761349243</v>
+        <v>1.039249152976232</v>
       </c>
       <c r="J10">
-        <v>1.02814226880031</v>
+        <v>1.041869521955669</v>
       </c>
       <c r="K10">
-        <v>1.034868105625161</v>
+        <v>1.047033597862915</v>
       </c>
       <c r="L10">
-        <v>1.027513669807237</v>
+        <v>1.053589226810045</v>
       </c>
       <c r="M10">
-        <v>1.036386453631478</v>
+        <v>1.059346514018797</v>
       </c>
       <c r="N10">
-        <v>1.029602348751573</v>
+        <v>1.043349096180951</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9971132557456944</v>
+        <v>1.034994484255312</v>
       </c>
       <c r="D11">
-        <v>1.018778350573431</v>
+        <v>1.043191874930752</v>
       </c>
       <c r="E11">
-        <v>1.010703686809702</v>
+        <v>1.04961567720965</v>
       </c>
       <c r="F11">
-        <v>1.019776432763479</v>
+        <v>1.055412736543169</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043401005268625</v>
+        <v>1.03912856096315</v>
       </c>
       <c r="J11">
-        <v>1.026606621724189</v>
+        <v>1.041562879939339</v>
       </c>
       <c r="K11">
-        <v>1.033354615682695</v>
+        <v>1.046732520181389</v>
       </c>
       <c r="L11">
-        <v>1.02542653139307</v>
+        <v>1.053133028383365</v>
       </c>
       <c r="M11">
-        <v>1.034334789057008</v>
+        <v>1.05890933489668</v>
       </c>
       <c r="N11">
-        <v>1.028064520880463</v>
+        <v>1.043042018697785</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9960578736532687</v>
+        <v>1.034794048169658</v>
       </c>
       <c r="D12">
-        <v>1.017995997580914</v>
+        <v>1.043034822921825</v>
       </c>
       <c r="E12">
-        <v>1.009700580180699</v>
+        <v>1.049401290544258</v>
       </c>
       <c r="F12">
-        <v>1.018789568963392</v>
+        <v>1.055205678012228</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043100739461873</v>
+        <v>1.039083608178865</v>
       </c>
       <c r="J12">
-        <v>1.02603001348774</v>
+        <v>1.04144896872536</v>
       </c>
       <c r="K12">
-        <v>1.032786357525709</v>
+        <v>1.046620668111376</v>
       </c>
       <c r="L12">
-        <v>1.02464426265162</v>
+        <v>1.052963730559852</v>
       </c>
       <c r="M12">
-        <v>1.033565431814339</v>
+        <v>1.058747051067544</v>
       </c>
       <c r="N12">
-        <v>1.02748709379418</v>
+        <v>1.042927945716816</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9962847496112347</v>
+        <v>1.034837037092596</v>
       </c>
       <c r="D13">
-        <v>1.018164138343923</v>
+        <v>1.04306850605863</v>
       </c>
       <c r="E13">
-        <v>1.009916131864944</v>
+        <v>1.049447264773557</v>
       </c>
       <c r="F13">
-        <v>1.019001645607591</v>
+        <v>1.055250082559257</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043165347445149</v>
+        <v>1.03909325791199</v>
       </c>
       <c r="J13">
-        <v>1.026153982487419</v>
+        <v>1.041473403531846</v>
       </c>
       <c r="K13">
-        <v>1.032908529772073</v>
+        <v>1.046644661572036</v>
       </c>
       <c r="L13">
-        <v>1.024812384274326</v>
+        <v>1.053000038495566</v>
       </c>
       <c r="M13">
-        <v>1.033730795866066</v>
+        <v>1.058781856768244</v>
       </c>
       <c r="N13">
-        <v>1.027611238844058</v>
+        <v>1.042952415223531</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9970262389938804</v>
+        <v>1.034977913760178</v>
       </c>
       <c r="D14">
-        <v>1.018713826379447</v>
+        <v>1.043178890687824</v>
       </c>
       <c r="E14">
-        <v>1.010620941283413</v>
+        <v>1.049597950336774</v>
       </c>
       <c r="F14">
-        <v>1.019695033982952</v>
+        <v>1.055395616420344</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043376275137754</v>
+        <v>1.039124848402509</v>
       </c>
       <c r="J14">
-        <v>1.02655908702642</v>
+        <v>1.041553464214071</v>
       </c>
       <c r="K14">
-        <v>1.033307768684789</v>
+        <v>1.046723274822348</v>
       </c>
       <c r="L14">
-        <v>1.025362013658025</v>
+        <v>1.053119031009314</v>
       </c>
       <c r="M14">
-        <v>1.034271343995733</v>
+        <v>1.058895918334208</v>
       </c>
       <c r="N14">
-        <v>1.02801691867797</v>
+        <v>1.043032589601107</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9974816604088351</v>
+        <v>1.035064728008595</v>
       </c>
       <c r="D15">
-        <v>1.01905156544908</v>
+        <v>1.043246917063817</v>
       </c>
       <c r="E15">
-        <v>1.011054086126348</v>
+        <v>1.049690829073509</v>
       </c>
       <c r="F15">
-        <v>1.020121115229386</v>
+        <v>1.055485314500407</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043505651517748</v>
+        <v>1.039144291226577</v>
       </c>
       <c r="J15">
-        <v>1.026807856294077</v>
+        <v>1.041602790860972</v>
       </c>
       <c r="K15">
-        <v>1.033552940218879</v>
+        <v>1.046771708640134</v>
       </c>
       <c r="L15">
-        <v>1.025699719995962</v>
+        <v>1.053192366758241</v>
       </c>
       <c r="M15">
-        <v>1.034603419960151</v>
+        <v>1.058966209255852</v>
       </c>
       <c r="N15">
-        <v>1.028266041226522</v>
+        <v>1.043081986297504</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.00011088033257</v>
+        <v>1.03557025958385</v>
       </c>
       <c r="D16">
-        <v>1.021003191638946</v>
+        <v>1.043643083999657</v>
       </c>
       <c r="E16">
-        <v>1.013558499494857</v>
+        <v>1.050231977564009</v>
       </c>
       <c r="F16">
-        <v>1.022584004784323</v>
+        <v>1.05600785057617</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044249876305599</v>
+        <v>1.03925713385905</v>
       </c>
       <c r="J16">
-        <v>1.028243328523531</v>
+        <v>1.041889871203553</v>
       </c>
       <c r="K16">
-        <v>1.034967710981485</v>
+        <v>1.047053576742006</v>
       </c>
       <c r="L16">
-        <v>1.027651219684399</v>
+        <v>1.053619524783668</v>
       </c>
       <c r="M16">
-        <v>1.036521612034837</v>
+        <v>1.059375542644186</v>
       </c>
       <c r="N16">
-        <v>1.029703551991193</v>
+        <v>1.043369474327101</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.001741557352193</v>
+        <v>1.035887571878156</v>
       </c>
       <c r="D17">
-        <v>1.022215156530835</v>
+        <v>1.043891784867176</v>
       </c>
       <c r="E17">
-        <v>1.015115076570235</v>
+        <v>1.050571912116114</v>
       </c>
       <c r="F17">
-        <v>1.02411417047613</v>
+        <v>1.056336022291956</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044709065154962</v>
+        <v>1.039327632000205</v>
       </c>
       <c r="J17">
-        <v>1.02913297419739</v>
+        <v>1.042069928647678</v>
       </c>
       <c r="K17">
-        <v>1.035844571484612</v>
+        <v>1.047230350914364</v>
       </c>
       <c r="L17">
-        <v>1.028863174360486</v>
+        <v>1.053887743400632</v>
       </c>
       <c r="M17">
-        <v>1.037712200958464</v>
+        <v>1.059632490116008</v>
       </c>
       <c r="N17">
-        <v>1.030594461063952</v>
+        <v>1.04354978747345</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002686167850742</v>
+        <v>1.036072728348193</v>
       </c>
       <c r="D18">
-        <v>1.022917754927596</v>
+        <v>1.044036917853129</v>
       </c>
       <c r="E18">
-        <v>1.016017942008206</v>
+        <v>1.050770364839167</v>
       </c>
       <c r="F18">
-        <v>1.025001498057563</v>
+        <v>1.056527582315686</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044974189435696</v>
+        <v>1.039368649416017</v>
       </c>
       <c r="J18">
-        <v>1.029648077689406</v>
+        <v>1.042174945320862</v>
       </c>
       <c r="K18">
-        <v>1.036352285911708</v>
+        <v>1.04733344753187</v>
       </c>
       <c r="L18">
-        <v>1.029565796648868</v>
+        <v>1.054044288872408</v>
       </c>
       <c r="M18">
-        <v>1.038402190443459</v>
+        <v>1.059782428801622</v>
       </c>
       <c r="N18">
-        <v>1.031110296062011</v>
+        <v>1.043654953282355</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003007161265274</v>
+        <v>1.03613587434741</v>
       </c>
       <c r="D19">
-        <v>1.023156598402452</v>
+        <v>1.044086416264195</v>
       </c>
       <c r="E19">
-        <v>1.016324948782535</v>
+        <v>1.050838061652188</v>
       </c>
       <c r="F19">
-        <v>1.025303184234718</v>
+        <v>1.056592923529566</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045064133693899</v>
+        <v>1.039382617810196</v>
       </c>
       <c r="J19">
-        <v>1.029823075158836</v>
+        <v>1.042210751932783</v>
       </c>
       <c r="K19">
-        <v>1.036524775130331</v>
+        <v>1.047368598608419</v>
       </c>
       <c r="L19">
-        <v>1.029804653790256</v>
+        <v>1.054097683419768</v>
       </c>
       <c r="M19">
-        <v>1.038636711186985</v>
+        <v>1.059833565089708</v>
       </c>
       <c r="N19">
-        <v>1.031285542047919</v>
+        <v>1.043690810743772</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001567280578433</v>
+        <v>1.035853519649166</v>
       </c>
       <c r="D20">
-        <v>1.022085573030155</v>
+        <v>1.043865094366392</v>
       </c>
       <c r="E20">
-        <v>1.014948596602167</v>
+        <v>1.050535422276507</v>
       </c>
       <c r="F20">
-        <v>1.02395053788344</v>
+        <v>1.056300797765427</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044660080061834</v>
+        <v>1.039320078861139</v>
       </c>
       <c r="J20">
-        <v>1.029037919590098</v>
+        <v>1.042050610984271</v>
       </c>
       <c r="K20">
-        <v>1.035750881454126</v>
+        <v>1.047211386029569</v>
       </c>
       <c r="L20">
-        <v>1.028733588977535</v>
+        <v>1.05385895592342</v>
       </c>
       <c r="M20">
-        <v>1.037584925552935</v>
+        <v>1.059604915289401</v>
       </c>
       <c r="N20">
-        <v>1.030499271468216</v>
+        <v>1.043530442376745</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.99680818864099</v>
+        <v>1.034936425864059</v>
       </c>
       <c r="D21">
-        <v>1.018552153702307</v>
+        <v>1.043146382087044</v>
       </c>
       <c r="E21">
-        <v>1.010413624743921</v>
+        <v>1.049553569610073</v>
       </c>
       <c r="F21">
-        <v>1.019491086214798</v>
+        <v>1.055352754100359</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043314283918107</v>
+        <v>1.039115550188903</v>
       </c>
       <c r="J21">
-        <v>1.026439966989843</v>
+        <v>1.041529888624169</v>
       </c>
       <c r="K21">
-        <v>1.03319037251574</v>
+        <v>1.046700125677165</v>
       </c>
       <c r="L21">
-        <v>1.025200357572051</v>
+        <v>1.053083986399106</v>
       </c>
       <c r="M21">
-        <v>1.034112369427059</v>
+        <v>1.058862327162557</v>
       </c>
       <c r="N21">
-        <v>1.027897629477278</v>
+        <v>1.043008980531163</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9937537098600198</v>
+        <v>1.034360487278597</v>
       </c>
       <c r="D22">
-        <v>1.016289658364645</v>
+        <v>1.042695142238876</v>
       </c>
       <c r="E22">
-        <v>1.007514084890303</v>
+        <v>1.048937827036346</v>
       </c>
       <c r="F22">
-        <v>1.016637859561472</v>
+        <v>1.054757983758468</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042442774042953</v>
+        <v>1.038986032186903</v>
       </c>
       <c r="J22">
-        <v>1.024770528224407</v>
+        <v>1.041202428442715</v>
       </c>
       <c r="K22">
-        <v>1.031545176660177</v>
+        <v>1.046378570123197</v>
       </c>
       <c r="L22">
-        <v>1.022938141635516</v>
+        <v>1.052597627506689</v>
       </c>
       <c r="M22">
-        <v>1.031886768977543</v>
+        <v>1.05839603486085</v>
       </c>
       <c r="N22">
-        <v>1.026225819917308</v>
+        <v>1.042681055318692</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9953790164237769</v>
+        <v>1.034665738694339</v>
       </c>
       <c r="D23">
-        <v>1.017493025146221</v>
+        <v>1.042934291449195</v>
       </c>
       <c r="E23">
-        <v>1.009055889102358</v>
+        <v>1.049264092712687</v>
       </c>
       <c r="F23">
-        <v>1.018155221899399</v>
+        <v>1.055073158647901</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042907227125736</v>
+        <v>1.039054779357728</v>
       </c>
       <c r="J23">
-        <v>1.025659025366387</v>
+        <v>1.041376026670918</v>
       </c>
       <c r="K23">
-        <v>1.032420751458987</v>
+        <v>1.046549042399386</v>
       </c>
       <c r="L23">
-        <v>1.024141350407987</v>
+        <v>1.052855370144028</v>
       </c>
       <c r="M23">
-        <v>1.033070712435771</v>
+        <v>1.058643167576799</v>
       </c>
       <c r="N23">
-        <v>1.027115578827142</v>
+        <v>1.04285490007629</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.001646048913677</v>
+        <v>1.035868906158555</v>
       </c>
       <c r="D24">
-        <v>1.022144139566971</v>
+        <v>1.043877154438839</v>
       </c>
       <c r="E24">
-        <v>1.015023837342554</v>
+        <v>1.050551909924959</v>
       </c>
       <c r="F24">
-        <v>1.024024492427292</v>
+        <v>1.056316713771116</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044682222690809</v>
+        <v>1.039323492117769</v>
       </c>
       <c r="J24">
-        <v>1.029080882438012</v>
+        <v>1.042059339829069</v>
       </c>
       <c r="K24">
-        <v>1.03579322749834</v>
+        <v>1.047219955484289</v>
       </c>
       <c r="L24">
-        <v>1.028792156271437</v>
+        <v>1.053871963442362</v>
       </c>
       <c r="M24">
-        <v>1.037642449594433</v>
+        <v>1.059617374964208</v>
       </c>
       <c r="N24">
-        <v>1.030542295328302</v>
+        <v>1.043539183617503</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008663693269634</v>
+        <v>1.037267995123221</v>
       </c>
       <c r="D25">
-        <v>1.027372906598387</v>
+        <v>1.044974032877669</v>
       </c>
       <c r="E25">
-        <v>1.021752010693635</v>
+        <v>1.05205319408217</v>
       </c>
       <c r="F25">
-        <v>1.030632943981727</v>
+        <v>1.057765393125146</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046635993551839</v>
+        <v>1.039631276983102</v>
       </c>
       <c r="J25">
-        <v>1.032902966426435</v>
+        <v>1.042851976601464</v>
       </c>
       <c r="K25">
-        <v>1.039560650750854</v>
+        <v>1.047998007173747</v>
       </c>
       <c r="L25">
-        <v>1.03402178466051</v>
+        <v>1.05505550523313</v>
       </c>
       <c r="M25">
-        <v>1.042773631306218</v>
+        <v>1.060750454610516</v>
       </c>
       <c r="N25">
-        <v>1.034369807114386</v>
+        <v>1.044332946025032</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038386164815461</v>
+        <v>1.014071707743663</v>
       </c>
       <c r="D2">
-        <v>1.045851041287301</v>
+        <v>1.031417011376507</v>
       </c>
       <c r="E2">
-        <v>1.053256060915684</v>
+        <v>1.026972151180156</v>
       </c>
       <c r="F2">
-        <v>1.05892530057322</v>
+        <v>1.035753262703277</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039873480429175</v>
+        <v>1.048113258626367</v>
       </c>
       <c r="J2">
-        <v>1.043483884721495</v>
+        <v>1.035839530723339</v>
       </c>
       <c r="K2">
-        <v>1.048618122783219</v>
+        <v>1.042455343731307</v>
       </c>
       <c r="L2">
-        <v>1.056002532289689</v>
+        <v>1.038068087150701</v>
       </c>
       <c r="M2">
-        <v>1.061656203973915</v>
+        <v>1.046735994264976</v>
       </c>
       <c r="N2">
-        <v>1.044965751527075</v>
+        <v>1.037310541669429</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039199336134313</v>
+        <v>1.017896110633159</v>
       </c>
       <c r="D3">
-        <v>1.046489036361063</v>
+        <v>1.034284528972537</v>
       </c>
       <c r="E3">
-        <v>1.054132573153599</v>
+        <v>1.030683547614824</v>
       </c>
       <c r="F3">
-        <v>1.059770038747412</v>
+        <v>1.039389603520969</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040047423652195</v>
+        <v>1.049140898826205</v>
       </c>
       <c r="J3">
-        <v>1.043942511211551</v>
+        <v>1.037910520124661</v>
       </c>
       <c r="K3">
-        <v>1.049068093421251</v>
+        <v>1.044496749651793</v>
       </c>
       <c r="L3">
-        <v>1.056691890253293</v>
+        <v>1.040938320720462</v>
       </c>
       <c r="M3">
-        <v>1.062314993400018</v>
+        <v>1.049542122847747</v>
       </c>
       <c r="N3">
-        <v>1.045425029319351</v>
+        <v>1.039384472113239</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039726095241533</v>
+        <v>1.02032571371528</v>
       </c>
       <c r="D4">
-        <v>1.046902410562692</v>
+        <v>1.036109503819097</v>
       </c>
       <c r="E4">
-        <v>1.054701169430197</v>
+        <v>1.033050396042867</v>
       </c>
       <c r="F4">
-        <v>1.06031780566552</v>
+        <v>1.041706672933853</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040159084803811</v>
+        <v>1.04978565694803</v>
       </c>
       <c r="J4">
-        <v>1.044239175539035</v>
+        <v>1.039223398729503</v>
       </c>
       <c r="K4">
-        <v>1.049359113278943</v>
+        <v>1.045790809409848</v>
       </c>
       <c r="L4">
-        <v>1.05713874290285</v>
+        <v>1.042765647415603</v>
       </c>
       <c r="M4">
-        <v>1.06274178966017</v>
+        <v>1.05132650248712</v>
       </c>
       <c r="N4">
-        <v>1.045722114944208</v>
+        <v>1.040699215156289</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039947682615582</v>
+        <v>1.021336658502185</v>
       </c>
       <c r="D5">
-        <v>1.047076322650875</v>
+        <v>1.036869613298202</v>
       </c>
       <c r="E5">
-        <v>1.054940548728408</v>
+        <v>1.034037376566834</v>
       </c>
       <c r="F5">
-        <v>1.060548363773083</v>
+        <v>1.042672432854907</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040205812964704</v>
+        <v>1.050051966084222</v>
       </c>
       <c r="J5">
-        <v>1.044363868577386</v>
+        <v>1.039768983358284</v>
       </c>
       <c r="K5">
-        <v>1.049481422909743</v>
+        <v>1.046328552346627</v>
       </c>
       <c r="L5">
-        <v>1.057326787721873</v>
+        <v>1.043526898809775</v>
       </c>
       <c r="M5">
-        <v>1.06292133656277</v>
+        <v>1.052069346811665</v>
       </c>
       <c r="N5">
-        <v>1.045846985060976</v>
+        <v>1.041245574577822</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03998489614469</v>
+        <v>1.021505796310134</v>
       </c>
       <c r="D6">
-        <v>1.047105530801851</v>
+        <v>1.036996827535087</v>
       </c>
       <c r="E6">
-        <v>1.054980761530808</v>
+        <v>1.034202630645373</v>
       </c>
       <c r="F6">
-        <v>1.060587091673906</v>
+        <v>1.042834106599146</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040213646248125</v>
+        <v>1.050096404650299</v>
       </c>
       <c r="J6">
-        <v>1.04438480360538</v>
+        <v>1.039860221601245</v>
       </c>
       <c r="K6">
-        <v>1.049501957137689</v>
+        <v>1.046418477807756</v>
       </c>
       <c r="L6">
-        <v>1.057358372249436</v>
+        <v>1.043654314072998</v>
       </c>
       <c r="M6">
-        <v>1.062951490369721</v>
+        <v>1.052193650768446</v>
       </c>
       <c r="N6">
-        <v>1.045867949819111</v>
+        <v>1.041336942389553</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039729055563356</v>
+        <v>1.020339262692758</v>
       </c>
       <c r="D7">
-        <v>1.046904733877644</v>
+        <v>1.036119688126742</v>
       </c>
       <c r="E7">
-        <v>1.054704366688966</v>
+        <v>1.033063615391018</v>
       </c>
       <c r="F7">
-        <v>1.060320885308698</v>
+        <v>1.041719609888604</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040159710030267</v>
+        <v>1.049789233923485</v>
       </c>
       <c r="J7">
-        <v>1.044240841791933</v>
+        <v>1.039230713599841</v>
       </c>
       <c r="K7">
-        <v>1.04936074772584</v>
+        <v>1.04579801923495</v>
       </c>
       <c r="L7">
-        <v>1.057141254830394</v>
+        <v>1.042775846365568</v>
       </c>
       <c r="M7">
-        <v>1.06274418829832</v>
+        <v>1.05133645686582</v>
       </c>
       <c r="N7">
-        <v>1.045723783563376</v>
+        <v>1.040706540414582</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038660858156393</v>
+        <v>1.015373707342355</v>
       </c>
       <c r="D8">
-        <v>1.046066540014555</v>
+        <v>1.032392535833838</v>
       </c>
       <c r="E8">
-        <v>1.053551984193948</v>
+        <v>1.028233773051887</v>
       </c>
       <c r="F8">
-        <v>1.059210541424106</v>
+        <v>1.036989768469353</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039932449575051</v>
+        <v>1.04846478946301</v>
       </c>
       <c r="J8">
-        <v>1.043638899158239</v>
+        <v>1.036545159537395</v>
       </c>
       <c r="K8">
-        <v>1.048770220925311</v>
+        <v>1.043150902877031</v>
       </c>
       <c r="L8">
-        <v>1.056235339082243</v>
+        <v>1.039044413072235</v>
       </c>
       <c r="M8">
-        <v>1.061878737228453</v>
+        <v>1.047690958772378</v>
       </c>
       <c r="N8">
-        <v>1.045120986102098</v>
+        <v>1.03801717255733</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036783097324744</v>
+        <v>1.00626360706912</v>
       </c>
       <c r="D9">
-        <v>1.044593817186431</v>
+        <v>1.025582201488838</v>
       </c>
       <c r="E9">
-        <v>1.051532409447836</v>
+        <v>1.019445304765283</v>
       </c>
       <c r="F9">
-        <v>1.057262981986295</v>
+        <v>1.0283683629343</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039525189017308</v>
+        <v>1.045972172919902</v>
       </c>
       <c r="J9">
-        <v>1.042577506988299</v>
+        <v>1.031597103691691</v>
       </c>
       <c r="K9">
-        <v>1.047728613342663</v>
+        <v>1.038273425907728</v>
       </c>
       <c r="L9">
-        <v>1.05464513732987</v>
+        <v>1.032230581194668</v>
       </c>
       <c r="M9">
-        <v>1.060357722400386</v>
+        <v>1.041017359520335</v>
       </c>
       <c r="N9">
-        <v>1.044058086633534</v>
+        <v>1.033062089904774</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035534410236522</v>
+        <v>0.9999257027822275</v>
       </c>
       <c r="D10">
-        <v>1.043614987919598</v>
+        <v>1.020865636921542</v>
       </c>
       <c r="E10">
-        <v>1.050193585366168</v>
+        <v>1.013381898047938</v>
       </c>
       <c r="F10">
-        <v>1.055970783412089</v>
+        <v>1.022410370226721</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039249152976232</v>
+        <v>1.04419761349243</v>
       </c>
       <c r="J10">
-        <v>1.041869521955669</v>
+        <v>1.028142268800309</v>
       </c>
       <c r="K10">
-        <v>1.047033597862915</v>
+        <v>1.03486810562516</v>
       </c>
       <c r="L10">
-        <v>1.053589226810045</v>
+        <v>1.027513669807236</v>
       </c>
       <c r="M10">
-        <v>1.059346514018797</v>
+        <v>1.036386453631477</v>
       </c>
       <c r="N10">
-        <v>1.043349096180951</v>
+        <v>1.029602348751572</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034994484255312</v>
+        <v>0.9971132557456938</v>
       </c>
       <c r="D11">
-        <v>1.043191874930752</v>
+        <v>1.018778350573431</v>
       </c>
       <c r="E11">
-        <v>1.04961567720965</v>
+        <v>1.010703686809701</v>
       </c>
       <c r="F11">
-        <v>1.055412736543169</v>
+        <v>1.019776432763478</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03912856096315</v>
+        <v>1.043401005268625</v>
       </c>
       <c r="J11">
-        <v>1.041562879939339</v>
+        <v>1.026606621724188</v>
       </c>
       <c r="K11">
-        <v>1.046732520181389</v>
+        <v>1.033354615682694</v>
       </c>
       <c r="L11">
-        <v>1.053133028383365</v>
+        <v>1.025426531393069</v>
       </c>
       <c r="M11">
-        <v>1.05890933489668</v>
+        <v>1.034334789057007</v>
       </c>
       <c r="N11">
-        <v>1.043042018697785</v>
+        <v>1.028064520880462</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034794048169658</v>
+        <v>0.9960578736532695</v>
       </c>
       <c r="D12">
-        <v>1.043034822921825</v>
+        <v>1.017995997580915</v>
       </c>
       <c r="E12">
-        <v>1.049401290544258</v>
+        <v>1.0097005801807</v>
       </c>
       <c r="F12">
-        <v>1.055205678012228</v>
+        <v>1.018789568963393</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039083608178865</v>
+        <v>1.043100739461873</v>
       </c>
       <c r="J12">
-        <v>1.04144896872536</v>
+        <v>1.026030013487741</v>
       </c>
       <c r="K12">
-        <v>1.046620668111376</v>
+        <v>1.03278635752571</v>
       </c>
       <c r="L12">
-        <v>1.052963730559852</v>
+        <v>1.024644262651621</v>
       </c>
       <c r="M12">
-        <v>1.058747051067544</v>
+        <v>1.03356543181434</v>
       </c>
       <c r="N12">
-        <v>1.042927945716816</v>
+        <v>1.027487093794181</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034837037092596</v>
+        <v>0.9962847496112335</v>
       </c>
       <c r="D13">
-        <v>1.04306850605863</v>
+        <v>1.018164138343922</v>
       </c>
       <c r="E13">
-        <v>1.049447264773557</v>
+        <v>1.009916131864943</v>
       </c>
       <c r="F13">
-        <v>1.055250082559257</v>
+        <v>1.01900164560759</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03909325791199</v>
+        <v>1.043165347445149</v>
       </c>
       <c r="J13">
-        <v>1.041473403531846</v>
+        <v>1.026153982487418</v>
       </c>
       <c r="K13">
-        <v>1.046644661572036</v>
+        <v>1.032908529772071</v>
       </c>
       <c r="L13">
-        <v>1.053000038495566</v>
+        <v>1.024812384274326</v>
       </c>
       <c r="M13">
-        <v>1.058781856768244</v>
+        <v>1.033730795866065</v>
       </c>
       <c r="N13">
-        <v>1.042952415223531</v>
+        <v>1.027611238844057</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034977913760178</v>
+        <v>0.9970262389938793</v>
       </c>
       <c r="D14">
-        <v>1.043178890687824</v>
+        <v>1.018713826379446</v>
       </c>
       <c r="E14">
-        <v>1.049597950336774</v>
+        <v>1.010620941283412</v>
       </c>
       <c r="F14">
-        <v>1.055395616420344</v>
+        <v>1.019695033982952</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039124848402509</v>
+        <v>1.043376275137754</v>
       </c>
       <c r="J14">
-        <v>1.041553464214071</v>
+        <v>1.026559087026419</v>
       </c>
       <c r="K14">
-        <v>1.046723274822348</v>
+        <v>1.033307768684788</v>
       </c>
       <c r="L14">
-        <v>1.053119031009314</v>
+        <v>1.025362013658024</v>
       </c>
       <c r="M14">
-        <v>1.058895918334208</v>
+        <v>1.034271343995733</v>
       </c>
       <c r="N14">
-        <v>1.043032589601107</v>
+        <v>1.028016918677969</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035064728008595</v>
+        <v>0.997481660408836</v>
       </c>
       <c r="D15">
-        <v>1.043246917063817</v>
+        <v>1.019051565449081</v>
       </c>
       <c r="E15">
-        <v>1.049690829073509</v>
+        <v>1.011054086126349</v>
       </c>
       <c r="F15">
-        <v>1.055485314500407</v>
+        <v>1.020121115229387</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039144291226577</v>
+        <v>1.043505651517748</v>
       </c>
       <c r="J15">
-        <v>1.041602790860972</v>
+        <v>1.026807856294078</v>
       </c>
       <c r="K15">
-        <v>1.046771708640134</v>
+        <v>1.033552940218879</v>
       </c>
       <c r="L15">
-        <v>1.053192366758241</v>
+        <v>1.025699719995963</v>
       </c>
       <c r="M15">
-        <v>1.058966209255852</v>
+        <v>1.034603419960152</v>
       </c>
       <c r="N15">
-        <v>1.043081986297504</v>
+        <v>1.028266041226523</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03557025958385</v>
+        <v>1.000110880332569</v>
       </c>
       <c r="D16">
-        <v>1.043643083999657</v>
+        <v>1.021003191638946</v>
       </c>
       <c r="E16">
-        <v>1.050231977564009</v>
+        <v>1.013558499494857</v>
       </c>
       <c r="F16">
-        <v>1.05600785057617</v>
+        <v>1.022584004784322</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03925713385905</v>
+        <v>1.044249876305599</v>
       </c>
       <c r="J16">
-        <v>1.041889871203553</v>
+        <v>1.028243328523531</v>
       </c>
       <c r="K16">
-        <v>1.047053576742006</v>
+        <v>1.034967710981485</v>
       </c>
       <c r="L16">
-        <v>1.053619524783668</v>
+        <v>1.027651219684399</v>
       </c>
       <c r="M16">
-        <v>1.059375542644186</v>
+        <v>1.036521612034836</v>
       </c>
       <c r="N16">
-        <v>1.043369474327101</v>
+        <v>1.029703551991193</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035887571878156</v>
+        <v>1.001741557352192</v>
       </c>
       <c r="D17">
-        <v>1.043891784867176</v>
+        <v>1.022215156530834</v>
       </c>
       <c r="E17">
-        <v>1.050571912116114</v>
+        <v>1.015115076570235</v>
       </c>
       <c r="F17">
-        <v>1.056336022291956</v>
+        <v>1.02411417047613</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039327632000205</v>
+        <v>1.044709065154961</v>
       </c>
       <c r="J17">
-        <v>1.042069928647678</v>
+        <v>1.029132974197389</v>
       </c>
       <c r="K17">
-        <v>1.047230350914364</v>
+        <v>1.035844571484611</v>
       </c>
       <c r="L17">
-        <v>1.053887743400632</v>
+        <v>1.028863174360486</v>
       </c>
       <c r="M17">
-        <v>1.059632490116008</v>
+        <v>1.037712200958463</v>
       </c>
       <c r="N17">
-        <v>1.04354978747345</v>
+        <v>1.030594461063951</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036072728348193</v>
+        <v>1.002686167850742</v>
       </c>
       <c r="D18">
-        <v>1.044036917853129</v>
+        <v>1.022917754927596</v>
       </c>
       <c r="E18">
-        <v>1.050770364839167</v>
+        <v>1.016017942008206</v>
       </c>
       <c r="F18">
-        <v>1.056527582315686</v>
+        <v>1.025001498057563</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039368649416017</v>
+        <v>1.044974189435696</v>
       </c>
       <c r="J18">
-        <v>1.042174945320862</v>
+        <v>1.029648077689406</v>
       </c>
       <c r="K18">
-        <v>1.04733344753187</v>
+        <v>1.036352285911708</v>
       </c>
       <c r="L18">
-        <v>1.054044288872408</v>
+        <v>1.029565796648868</v>
       </c>
       <c r="M18">
-        <v>1.059782428801622</v>
+        <v>1.038402190443459</v>
       </c>
       <c r="N18">
-        <v>1.043654953282355</v>
+        <v>1.031110296062011</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03613587434741</v>
+        <v>1.003007161265274</v>
       </c>
       <c r="D19">
-        <v>1.044086416264195</v>
+        <v>1.023156598402452</v>
       </c>
       <c r="E19">
-        <v>1.050838061652188</v>
+        <v>1.016324948782535</v>
       </c>
       <c r="F19">
-        <v>1.056592923529566</v>
+        <v>1.025303184234718</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039382617810196</v>
+        <v>1.045064133693899</v>
       </c>
       <c r="J19">
-        <v>1.042210751932783</v>
+        <v>1.029823075158836</v>
       </c>
       <c r="K19">
-        <v>1.047368598608419</v>
+        <v>1.036524775130331</v>
       </c>
       <c r="L19">
-        <v>1.054097683419768</v>
+        <v>1.029804653790255</v>
       </c>
       <c r="M19">
-        <v>1.059833565089708</v>
+        <v>1.038636711186985</v>
       </c>
       <c r="N19">
-        <v>1.043690810743772</v>
+        <v>1.031285542047919</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035853519649166</v>
+        <v>1.001567280578433</v>
       </c>
       <c r="D20">
-        <v>1.043865094366392</v>
+        <v>1.022085573030155</v>
       </c>
       <c r="E20">
-        <v>1.050535422276507</v>
+        <v>1.014948596602166</v>
       </c>
       <c r="F20">
-        <v>1.056300797765427</v>
+        <v>1.02395053788344</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039320078861139</v>
+        <v>1.044660080061834</v>
       </c>
       <c r="J20">
-        <v>1.042050610984271</v>
+        <v>1.029037919590098</v>
       </c>
       <c r="K20">
-        <v>1.047211386029569</v>
+        <v>1.035750881454126</v>
       </c>
       <c r="L20">
-        <v>1.05385895592342</v>
+        <v>1.028733588977535</v>
       </c>
       <c r="M20">
-        <v>1.059604915289401</v>
+        <v>1.037584925552934</v>
       </c>
       <c r="N20">
-        <v>1.043530442376745</v>
+        <v>1.030499271468215</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034936425864059</v>
+        <v>0.9968081886409902</v>
       </c>
       <c r="D21">
-        <v>1.043146382087044</v>
+        <v>1.018552153702307</v>
       </c>
       <c r="E21">
-        <v>1.049553569610073</v>
+        <v>1.010413624743921</v>
       </c>
       <c r="F21">
-        <v>1.055352754100359</v>
+        <v>1.019491086214798</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039115550188903</v>
+        <v>1.043314283918108</v>
       </c>
       <c r="J21">
-        <v>1.041529888624169</v>
+        <v>1.026439966989843</v>
       </c>
       <c r="K21">
-        <v>1.046700125677165</v>
+        <v>1.03319037251574</v>
       </c>
       <c r="L21">
-        <v>1.053083986399106</v>
+        <v>1.025200357572052</v>
       </c>
       <c r="M21">
-        <v>1.058862327162557</v>
+        <v>1.034112369427059</v>
       </c>
       <c r="N21">
-        <v>1.043008980531163</v>
+        <v>1.027897629477279</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034360487278597</v>
+        <v>0.99375370986002</v>
       </c>
       <c r="D22">
-        <v>1.042695142238876</v>
+        <v>1.016289658364645</v>
       </c>
       <c r="E22">
-        <v>1.048937827036346</v>
+        <v>1.007514084890303</v>
       </c>
       <c r="F22">
-        <v>1.054757983758468</v>
+        <v>1.016637859561472</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038986032186903</v>
+        <v>1.042442774042953</v>
       </c>
       <c r="J22">
-        <v>1.041202428442715</v>
+        <v>1.024770528224408</v>
       </c>
       <c r="K22">
-        <v>1.046378570123197</v>
+        <v>1.031545176660178</v>
       </c>
       <c r="L22">
-        <v>1.052597627506689</v>
+        <v>1.022938141635517</v>
       </c>
       <c r="M22">
-        <v>1.05839603486085</v>
+        <v>1.031886768977543</v>
       </c>
       <c r="N22">
-        <v>1.042681055318692</v>
+        <v>1.026225819917309</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034665738694339</v>
+        <v>0.9953790164237766</v>
       </c>
       <c r="D23">
-        <v>1.042934291449195</v>
+        <v>1.017493025146221</v>
       </c>
       <c r="E23">
-        <v>1.049264092712687</v>
+        <v>1.009055889102358</v>
       </c>
       <c r="F23">
-        <v>1.055073158647901</v>
+        <v>1.018155221899399</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039054779357728</v>
+        <v>1.042907227125736</v>
       </c>
       <c r="J23">
-        <v>1.041376026670918</v>
+        <v>1.025659025366386</v>
       </c>
       <c r="K23">
-        <v>1.046549042399386</v>
+        <v>1.032420751458987</v>
       </c>
       <c r="L23">
-        <v>1.052855370144028</v>
+        <v>1.024141350407987</v>
       </c>
       <c r="M23">
-        <v>1.058643167576799</v>
+        <v>1.03307071243577</v>
       </c>
       <c r="N23">
-        <v>1.04285490007629</v>
+        <v>1.027115578827141</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035868906158555</v>
+        <v>1.001646048913677</v>
       </c>
       <c r="D24">
-        <v>1.043877154438839</v>
+        <v>1.022144139566972</v>
       </c>
       <c r="E24">
-        <v>1.050551909924959</v>
+        <v>1.015023837342554</v>
       </c>
       <c r="F24">
-        <v>1.056316713771116</v>
+        <v>1.024024492427292</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039323492117769</v>
+        <v>1.04468222269081</v>
       </c>
       <c r="J24">
-        <v>1.042059339829069</v>
+        <v>1.029080882438013</v>
       </c>
       <c r="K24">
-        <v>1.047219955484289</v>
+        <v>1.03579322749834</v>
       </c>
       <c r="L24">
-        <v>1.053871963442362</v>
+        <v>1.028792156271437</v>
       </c>
       <c r="M24">
-        <v>1.059617374964208</v>
+        <v>1.037642449594433</v>
       </c>
       <c r="N24">
-        <v>1.043539183617503</v>
+        <v>1.030542295328302</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037267995123221</v>
+        <v>1.008663693269634</v>
       </c>
       <c r="D25">
-        <v>1.044974032877669</v>
+        <v>1.027372906598387</v>
       </c>
       <c r="E25">
-        <v>1.05205319408217</v>
+        <v>1.021752010693634</v>
       </c>
       <c r="F25">
-        <v>1.057765393125146</v>
+        <v>1.030632943981726</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039631276983102</v>
+        <v>1.046635993551839</v>
       </c>
       <c r="J25">
-        <v>1.042851976601464</v>
+        <v>1.032902966426434</v>
       </c>
       <c r="K25">
-        <v>1.047998007173747</v>
+        <v>1.039560650750853</v>
       </c>
       <c r="L25">
-        <v>1.05505550523313</v>
+        <v>1.034021784660509</v>
       </c>
       <c r="M25">
-        <v>1.060750454610516</v>
+        <v>1.042773631306218</v>
       </c>
       <c r="N25">
-        <v>1.044332946025032</v>
+        <v>1.034369807114386</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014071707743663</v>
+        <v>0.9928575765051559</v>
       </c>
       <c r="D2">
-        <v>1.031417011376507</v>
+        <v>1.015035205140149</v>
       </c>
       <c r="E2">
-        <v>1.026972151180156</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.035753262703277</v>
+        <v>1.013528149383119</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048113258626367</v>
+        <v>1.040985359616463</v>
       </c>
       <c r="J2">
-        <v>1.035839530723339</v>
+        <v>1.015254035296097</v>
       </c>
       <c r="K2">
-        <v>1.042455343731307</v>
+        <v>1.026288975445985</v>
       </c>
       <c r="L2">
-        <v>1.038068087150701</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.046735994264976</v>
+        <v>1.024802178709439</v>
       </c>
       <c r="N2">
-        <v>1.037310541669429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009081051053817</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028201544322394</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.029658685909465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017896110633159</v>
+        <v>0.9962645005653309</v>
       </c>
       <c r="D3">
-        <v>1.034284528972537</v>
+        <v>1.017168010148003</v>
       </c>
       <c r="E3">
-        <v>1.030683547614824</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.039389603520969</v>
+        <v>1.016414156515668</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049140898826205</v>
+        <v>1.04142421513043</v>
       </c>
       <c r="J3">
-        <v>1.037910520124661</v>
+        <v>1.01685751966954</v>
       </c>
       <c r="K3">
-        <v>1.044496749651793</v>
+        <v>1.02758583632192</v>
       </c>
       <c r="L3">
-        <v>1.040938320720462</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.049542122847747</v>
+        <v>1.026841236073406</v>
       </c>
       <c r="N3">
-        <v>1.039384472113239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009623692953002</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.029815347789414</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.030573003074589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02032571371528</v>
+        <v>0.9984299062973279</v>
       </c>
       <c r="D4">
-        <v>1.036109503819097</v>
+        <v>1.018526369279458</v>
       </c>
       <c r="E4">
-        <v>1.033050396042867</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.041706672933853</v>
+        <v>1.018255211199945</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04978565694803</v>
+        <v>1.041692741292401</v>
       </c>
       <c r="J4">
-        <v>1.039223398729503</v>
+        <v>1.017873860684158</v>
       </c>
       <c r="K4">
-        <v>1.045790809409848</v>
+        <v>1.028406223364438</v>
       </c>
       <c r="L4">
-        <v>1.042765647415603</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.05132650248712</v>
+        <v>1.028138193499162</v>
       </c>
       <c r="N4">
-        <v>1.040699215156289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.009967587905199</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.030841817391368</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.031154006907923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021336658502185</v>
+        <v>0.9993338289344331</v>
       </c>
       <c r="D5">
-        <v>1.036869613298202</v>
+        <v>1.019096143835148</v>
       </c>
       <c r="E5">
-        <v>1.034037376566834</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.042672432854907</v>
+        <v>1.019024205793704</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050051966084222</v>
+        <v>1.041803647991998</v>
       </c>
       <c r="J5">
-        <v>1.039768983358284</v>
+        <v>1.018298783239201</v>
       </c>
       <c r="K5">
-        <v>1.046328552346627</v>
+        <v>1.028750468651</v>
       </c>
       <c r="L5">
-        <v>1.043526898809775</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.052069346811665</v>
+        <v>1.028679338483102</v>
       </c>
       <c r="N5">
-        <v>1.041245574577822</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010111580782802</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.031270103072966</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.031404677116902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021505796310134</v>
+        <v>0.9994883529777915</v>
       </c>
       <c r="D6">
-        <v>1.036996827535087</v>
+        <v>1.019196153806202</v>
       </c>
       <c r="E6">
-        <v>1.034202630645373</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.042834106599146</v>
+        <v>1.019154383989765</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050096404650299</v>
+        <v>1.041824103214425</v>
       </c>
       <c r="J6">
-        <v>1.039860221601245</v>
+        <v>1.018373038407005</v>
       </c>
       <c r="K6">
-        <v>1.046418477807756</v>
+        <v>1.028812598582874</v>
       </c>
       <c r="L6">
-        <v>1.043654314072998</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.052193650768446</v>
+        <v>1.028771295704688</v>
       </c>
       <c r="N6">
-        <v>1.041336942389553</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010137018944457</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.031342881992345</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.031457455694675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020339262692758</v>
+        <v>0.9984508239325213</v>
       </c>
       <c r="D7">
-        <v>1.036119688126742</v>
+        <v>1.018546428572138</v>
       </c>
       <c r="E7">
-        <v>1.033063615391018</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.041719609888604</v>
+        <v>1.018269316009523</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049789233923485</v>
+        <v>1.041699727075652</v>
       </c>
       <c r="J7">
-        <v>1.039230713599841</v>
+        <v>1.017888135745684</v>
       </c>
       <c r="K7">
-        <v>1.04579801923495</v>
+        <v>1.028423123230295</v>
       </c>
       <c r="L7">
-        <v>1.042775846365568</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.05133645686582</v>
+        <v>1.028149206374073</v>
       </c>
       <c r="N7">
-        <v>1.040706540414582</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.00997317838453</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.030850533462289</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.031186303536916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015373707342355</v>
+        <v>0.9940281597980816</v>
       </c>
       <c r="D8">
-        <v>1.032392535833838</v>
+        <v>1.015775880819283</v>
       </c>
       <c r="E8">
-        <v>1.028233773051887</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.036989768469353</v>
+        <v>1.014513794461661</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04846478946301</v>
+        <v>1.04114367569761</v>
       </c>
       <c r="J8">
-        <v>1.036545159537395</v>
+        <v>1.015811022146477</v>
       </c>
       <c r="K8">
-        <v>1.043150902877031</v>
+        <v>1.02674631527054</v>
       </c>
       <c r="L8">
-        <v>1.039044413072235</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.047690958772378</v>
+        <v>1.02550069160605</v>
       </c>
       <c r="N8">
-        <v>1.03801717255733</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009270543302585</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.028754379872718</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.030005250515505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00626360706912</v>
+        <v>0.9859094389168789</v>
       </c>
       <c r="D9">
-        <v>1.025582201488838</v>
+        <v>1.010702953853414</v>
       </c>
       <c r="E9">
-        <v>1.019445304765283</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.0283683629343</v>
+        <v>1.007680084821971</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045972172919902</v>
+        <v>1.040035308696202</v>
       </c>
       <c r="J9">
-        <v>1.031597103691691</v>
+        <v>1.011969774914641</v>
       </c>
       <c r="K9">
-        <v>1.038273425907728</v>
+        <v>1.023624737398706</v>
       </c>
       <c r="L9">
-        <v>1.032230581194668</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.041017359520335</v>
+        <v>1.02064977491685</v>
       </c>
       <c r="N9">
-        <v>1.033062089904774</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007969536971528</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.024915129905851</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.027794826091897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9999257027822275</v>
+        <v>0.9803714973999053</v>
       </c>
       <c r="D10">
-        <v>1.020865636921542</v>
+        <v>1.007271423452729</v>
       </c>
       <c r="E10">
-        <v>1.013381898047938</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.022410370226721</v>
+        <v>1.003298847860425</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04419761349243</v>
+        <v>1.039244602850726</v>
       </c>
       <c r="J10">
-        <v>1.028142268800309</v>
+        <v>1.009386126913976</v>
       </c>
       <c r="K10">
-        <v>1.03486810562516</v>
+        <v>1.021510619600466</v>
       </c>
       <c r="L10">
-        <v>1.027513669807236</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.036386453631477</v>
+        <v>1.017608794945395</v>
       </c>
       <c r="N10">
-        <v>1.029602348751572</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007098484947057</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.022560791801519</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.026316998052887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9971132557456938</v>
+        <v>0.9787117141340176</v>
       </c>
       <c r="D11">
-        <v>1.018778350573431</v>
+        <v>1.006321834494051</v>
       </c>
       <c r="E11">
-        <v>1.010703686809701</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.019776432763478</v>
+        <v>1.00392019086883</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043401005268625</v>
+        <v>1.039123710556814</v>
       </c>
       <c r="J11">
-        <v>1.026606621724188</v>
+        <v>1.008997733624154</v>
       </c>
       <c r="K11">
-        <v>1.033354615682694</v>
+        <v>1.021125506979422</v>
       </c>
       <c r="L11">
-        <v>1.025426531393069</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.034334789057007</v>
+        <v>1.018768554872764</v>
       </c>
       <c r="N11">
-        <v>1.028064520880462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007001994413982</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.023922290927069</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.026077947952995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9960578736532695</v>
+        <v>0.9783555518984977</v>
       </c>
       <c r="D12">
-        <v>1.017995997580915</v>
+        <v>1.006153713559113</v>
       </c>
       <c r="E12">
-        <v>1.0097005801807</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.018789568963393</v>
+        <v>1.005001166783186</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043100739461873</v>
+        <v>1.039156382183812</v>
       </c>
       <c r="J12">
-        <v>1.026030013487741</v>
+        <v>1.009105056317856</v>
       </c>
       <c r="K12">
-        <v>1.03278635752571</v>
+        <v>1.021163960184991</v>
       </c>
       <c r="L12">
-        <v>1.024644262651621</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.03356543181434</v>
+        <v>1.020033175482417</v>
       </c>
       <c r="N12">
-        <v>1.027487093794181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007065607704513</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.025253626864794</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.026105136227699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9962847496112335</v>
+        <v>0.9789852213538264</v>
       </c>
       <c r="D13">
-        <v>1.018164138343922</v>
+        <v>1.006586457142903</v>
       </c>
       <c r="E13">
-        <v>1.009916131864943</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.01900164560759</v>
+        <v>1.006533731964933</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043165347445149</v>
+        <v>1.039318943039439</v>
       </c>
       <c r="J13">
-        <v>1.026153982487418</v>
+        <v>1.009610398951698</v>
       </c>
       <c r="K13">
-        <v>1.032908529772071</v>
+        <v>1.021544935823752</v>
       </c>
       <c r="L13">
-        <v>1.024812384274326</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.033730795866065</v>
+        <v>1.021493200318744</v>
       </c>
       <c r="N13">
-        <v>1.027611238844057</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007260859386349</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.026687964195511</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.026371982372994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9970262389938793</v>
+        <v>0.979863648628871</v>
       </c>
       <c r="D14">
-        <v>1.018713826379446</v>
+        <v>1.007157102053754</v>
       </c>
       <c r="E14">
-        <v>1.010620941283412</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.019695033982952</v>
+        <v>1.007784614083094</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043376275137754</v>
+        <v>1.039489455384258</v>
       </c>
       <c r="J14">
-        <v>1.026559087026419</v>
+        <v>1.01013568771006</v>
       </c>
       <c r="K14">
-        <v>1.033307768684788</v>
+        <v>1.021962089903968</v>
       </c>
       <c r="L14">
-        <v>1.025362013658024</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.034271343995733</v>
+        <v>1.022577980465247</v>
       </c>
       <c r="N14">
-        <v>1.028016918677969</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007454284298037</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.027720447667672</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.026668371838007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.997481660408836</v>
+        <v>0.9803040575763722</v>
       </c>
       <c r="D15">
-        <v>1.019051565449081</v>
+        <v>1.007436998465489</v>
       </c>
       <c r="E15">
-        <v>1.011054086126349</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.020121115229387</v>
+        <v>1.008237103212228</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043505651517748</v>
+        <v>1.039563672821116</v>
       </c>
       <c r="J15">
-        <v>1.026807856294078</v>
+        <v>1.01036359766795</v>
       </c>
       <c r="K15">
-        <v>1.033552940218879</v>
+        <v>1.022148857643661</v>
       </c>
       <c r="L15">
-        <v>1.025699719995963</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.034603419960152</v>
+        <v>1.022934259949188</v>
       </c>
       <c r="N15">
-        <v>1.028266041226523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007534825703286</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.028039903215046</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.026806364922257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000110880332569</v>
+        <v>0.9825097437662265</v>
       </c>
       <c r="D16">
-        <v>1.021003191638946</v>
+        <v>1.008794934905313</v>
       </c>
       <c r="E16">
-        <v>1.013558499494857</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.022584004784322</v>
+        <v>1.009838106619476</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044249876305599</v>
+        <v>1.039876917501105</v>
       </c>
       <c r="J16">
-        <v>1.028243328523531</v>
+        <v>1.011355833542614</v>
       </c>
       <c r="K16">
-        <v>1.034967710981485</v>
+        <v>1.02297097255337</v>
       </c>
       <c r="L16">
-        <v>1.027651219684399</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.036521612034836</v>
+        <v>1.02399581149323</v>
       </c>
       <c r="N16">
-        <v>1.029703551991193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007864774608495</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028839892623726</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027390847797225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001741557352192</v>
+        <v>0.98375078095553</v>
       </c>
       <c r="D17">
-        <v>1.022215156530834</v>
+        <v>1.009544632944929</v>
       </c>
       <c r="E17">
-        <v>1.015115076570235</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.02411417047613</v>
+        <v>1.010416534442137</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044709065154961</v>
+        <v>1.040027602324094</v>
       </c>
       <c r="J17">
-        <v>1.029132974197389</v>
+        <v>1.01184803896385</v>
       </c>
       <c r="K17">
-        <v>1.035844571484611</v>
+        <v>1.023387354528433</v>
       </c>
       <c r="L17">
-        <v>1.028863174360486</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.037712200958463</v>
+        <v>1.024244356280791</v>
       </c>
       <c r="N17">
-        <v>1.030594461063951</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008018565788557</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.028906105270425</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.027687872165923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002686167850742</v>
+        <v>0.9842382113915817</v>
       </c>
       <c r="D18">
-        <v>1.022917754927596</v>
+        <v>1.009807965664037</v>
       </c>
       <c r="E18">
-        <v>1.016017942008206</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.025001498057563</v>
+        <v>1.009998183694752</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044974189435696</v>
+        <v>1.040040182301035</v>
       </c>
       <c r="J18">
-        <v>1.029648077689406</v>
+        <v>1.011910195509599</v>
       </c>
       <c r="K18">
-        <v>1.036352285911708</v>
+        <v>1.023459521538806</v>
       </c>
       <c r="L18">
-        <v>1.029565796648868</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.038402190443459</v>
+        <v>1.023646538678694</v>
       </c>
       <c r="N18">
-        <v>1.031110296062011</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008018585422736</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.028193199946548</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.027727126871851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003007161265274</v>
+        <v>0.9840234246979307</v>
       </c>
       <c r="D19">
-        <v>1.023156598402452</v>
+        <v>1.009629686206013</v>
       </c>
       <c r="E19">
-        <v>1.016324948782535</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.025303184234718</v>
+        <v>1.008572949954707</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045064133693899</v>
+        <v>1.039929785677759</v>
       </c>
       <c r="J19">
-        <v>1.029823075158836</v>
+        <v>1.011565651726703</v>
       </c>
       <c r="K19">
-        <v>1.036524775130331</v>
+        <v>1.023220580339331</v>
       </c>
       <c r="L19">
-        <v>1.029804653790255</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.038636711186985</v>
+        <v>1.022181567355903</v>
       </c>
       <c r="N19">
-        <v>1.031285542047919</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007876505138593</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.026704927267587</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.027564654685572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001567280578433</v>
+        <v>0.981831292668493</v>
       </c>
       <c r="D20">
-        <v>1.022085573030155</v>
+        <v>1.008191599678527</v>
       </c>
       <c r="E20">
-        <v>1.014948596602166</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.02395053788344</v>
+        <v>1.004454026887261</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044660080061834</v>
+        <v>1.039467767155139</v>
       </c>
       <c r="J20">
-        <v>1.029037919590098</v>
+        <v>1.010081010604876</v>
       </c>
       <c r="K20">
-        <v>1.035750881454126</v>
+        <v>1.022091922932924</v>
       </c>
       <c r="L20">
-        <v>1.028733588977535</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.037584925552934</v>
+        <v>1.018419007141169</v>
       </c>
       <c r="N20">
-        <v>1.030499271468215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007335211313203</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.023191246732764</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.026770601864445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9968081886409902</v>
+        <v>0.977520025018741</v>
       </c>
       <c r="D21">
-        <v>1.018552153702307</v>
+        <v>1.005510774540213</v>
       </c>
       <c r="E21">
-        <v>1.010413624743921</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.019491086214798</v>
+        <v>1.000678203926807</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043314283918108</v>
+        <v>1.03880875352735</v>
       </c>
       <c r="J21">
-        <v>1.026439966989843</v>
+        <v>1.007988648333746</v>
       </c>
       <c r="K21">
-        <v>1.03319037251574</v>
+        <v>1.020388490364388</v>
       </c>
       <c r="L21">
-        <v>1.025200357572052</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.034112369427059</v>
+        <v>1.015646738908798</v>
       </c>
       <c r="N21">
-        <v>1.027897629477279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006623305081033</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.020955462666704</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.025569446761215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.99375370986002</v>
+        <v>0.974795948331877</v>
       </c>
       <c r="D22">
-        <v>1.016289658364645</v>
+        <v>1.003819251251613</v>
       </c>
       <c r="E22">
-        <v>1.007514084890303</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.016637859561472</v>
+        <v>0.9984257181927926</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042442774042953</v>
+        <v>1.038385521188388</v>
       </c>
       <c r="J22">
-        <v>1.024770528224408</v>
+        <v>1.006683663121763</v>
       </c>
       <c r="K22">
-        <v>1.031545176660178</v>
+        <v>1.019315425823751</v>
       </c>
       <c r="L22">
-        <v>1.022938141635517</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.031886768977543</v>
+        <v>1.014028426556746</v>
       </c>
       <c r="N22">
-        <v>1.026225819917309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006180198705036</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.019674639713283</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.024797047923355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9953790164237766</v>
+        <v>0.9762371148907059</v>
       </c>
       <c r="D23">
-        <v>1.017493025146221</v>
+        <v>1.004707719193427</v>
       </c>
       <c r="E23">
-        <v>1.009055889102358</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.018155221899399</v>
+        <v>0.9996197264620876</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042907227125736</v>
+        <v>1.038606730251208</v>
       </c>
       <c r="J23">
-        <v>1.025659025366386</v>
+        <v>1.007370411365807</v>
       </c>
       <c r="K23">
-        <v>1.032420751458987</v>
+        <v>1.019875824681332</v>
       </c>
       <c r="L23">
-        <v>1.024141350407987</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.03307071243577</v>
+        <v>1.014885734150107</v>
       </c>
       <c r="N23">
-        <v>1.027115578827141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006412536565308</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.02035316122154</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.025183526925408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001646048913677</v>
+        <v>0.9818117130940031</v>
       </c>
       <c r="D24">
-        <v>1.022144139566972</v>
+        <v>1.008163618771782</v>
       </c>
       <c r="E24">
-        <v>1.015023837342554</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.024024492427292</v>
+        <v>1.004251183370256</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468222269081</v>
+        <v>1.039447305779063</v>
       </c>
       <c r="J24">
-        <v>1.029080882438013</v>
+        <v>1.010028341017737</v>
       </c>
       <c r="K24">
-        <v>1.03579322749834</v>
+        <v>1.022048872942241</v>
       </c>
       <c r="L24">
-        <v>1.028792156271437</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.037642449594433</v>
+        <v>1.01820405250923</v>
       </c>
       <c r="N24">
-        <v>1.030542295328302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007313130576223</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.02297945877076</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.026712418884842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008663693269634</v>
+        <v>0.9880608881652005</v>
       </c>
       <c r="D25">
-        <v>1.027372906598387</v>
+        <v>1.012054725259962</v>
       </c>
       <c r="E25">
-        <v>1.021752010693634</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.030632943981726</v>
+        <v>1.009478825735032</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046635993551839</v>
+        <v>1.040344839441052</v>
       </c>
       <c r="J25">
-        <v>1.032902966426434</v>
+        <v>1.012996841487882</v>
       </c>
       <c r="K25">
-        <v>1.039560650750853</v>
+        <v>1.024468745557698</v>
       </c>
       <c r="L25">
-        <v>1.034021784660509</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.042773631306218</v>
+        <v>1.021931755845943</v>
       </c>
       <c r="N25">
-        <v>1.034369807114386</v>
+        <v>1.008318757334401</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.025929753678382</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.028420537545058</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9928575765051559</v>
+        <v>0.9934931038640333</v>
       </c>
       <c r="D2">
-        <v>1.015035205140149</v>
+        <v>1.015451915056913</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.013528149383119</v>
+        <v>1.013803462314933</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.040985359616463</v>
+        <v>1.041159798446156</v>
       </c>
       <c r="J2">
-        <v>1.015254035296097</v>
+        <v>1.015870192293437</v>
       </c>
       <c r="K2">
-        <v>1.026288975445985</v>
+        <v>1.026700096956286</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.024802178709439</v>
+        <v>1.025073785017774</v>
       </c>
       <c r="N2">
-        <v>1.009081051053817</v>
+        <v>1.011469713566526</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028201544322394</v>
+        <v>1.028416506222813</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.029658685909465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.029958268745314</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019272330038812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9962645005653309</v>
+        <v>0.9967819247047262</v>
       </c>
       <c r="D3">
-        <v>1.017168010148003</v>
+        <v>1.017437404324853</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.016414156515668</v>
+        <v>1.016638006609456</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04142421513043</v>
+        <v>1.041537415213897</v>
       </c>
       <c r="J3">
-        <v>1.01685751966954</v>
+        <v>1.017360703800549</v>
       </c>
       <c r="K3">
-        <v>1.02758583632192</v>
+        <v>1.027851927881839</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.026841236073406</v>
+        <v>1.027062336675753</v>
       </c>
       <c r="N3">
-        <v>1.009623692953002</v>
+        <v>1.011870908464098</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.029815347789414</v>
+        <v>1.029990336715017</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.030573003074589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.03076975812797</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019479423511292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9984299062973279</v>
+        <v>0.9988731846243053</v>
       </c>
       <c r="D4">
-        <v>1.018526369279458</v>
+        <v>1.018702763680808</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.018255211199945</v>
+        <v>1.018446820308974</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.041692741292401</v>
+        <v>1.041767225731668</v>
       </c>
       <c r="J4">
-        <v>1.017873860684158</v>
+        <v>1.018305758440712</v>
       </c>
       <c r="K4">
-        <v>1.028406223364438</v>
+        <v>1.028580583896622</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.028138193499162</v>
+        <v>1.028327591897111</v>
       </c>
       <c r="N4">
-        <v>1.009967587905199</v>
+        <v>1.012125284931107</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.030841817391368</v>
+        <v>1.030991715552829</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.031154006907923</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.031285980414022</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019607852895759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9993338289344331</v>
+        <v>0.9997463646543787</v>
       </c>
       <c r="D5">
-        <v>1.019096143835148</v>
+        <v>1.019233903186831</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.019024205793704</v>
+        <v>1.019202462789177</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.041803647991998</v>
+        <v>1.041862032604802</v>
       </c>
       <c r="J5">
-        <v>1.018298783239201</v>
+        <v>1.01870104171921</v>
       </c>
       <c r="K5">
-        <v>1.028750468651</v>
+        <v>1.028886681339229</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.028679338483102</v>
+        <v>1.028855593886525</v>
       </c>
       <c r="N5">
-        <v>1.010111580782802</v>
+        <v>1.012231861239754</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.031270103072966</v>
+        <v>1.031409599209982</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.031404677116902</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.031510386150555</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019661598376828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9994883529777915</v>
+        <v>0.9998956417782935</v>
       </c>
       <c r="D6">
-        <v>1.019196153806202</v>
+        <v>1.019327362268301</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.019154383989765</v>
+        <v>1.019330363295824</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.041824103214425</v>
+        <v>1.041879753092099</v>
       </c>
       <c r="J6">
-        <v>1.018373038407005</v>
+        <v>1.01877023246395</v>
       </c>
       <c r="K6">
-        <v>1.028812598582874</v>
+        <v>1.028942340592431</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.028771295704688</v>
+        <v>1.028945308084378</v>
       </c>
       <c r="N6">
-        <v>1.010137018944457</v>
+        <v>1.012250735779169</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.031342881992345</v>
+        <v>1.031480602889322</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.031457455694675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.031559456894071</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019671849747557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9984508239325213</v>
+        <v>0.9989013674752359</v>
       </c>
       <c r="D7">
-        <v>1.018546428572138</v>
+        <v>1.018727531282828</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.018269316009523</v>
+        <v>1.018464064604913</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.041699727075652</v>
+        <v>1.041776262660348</v>
       </c>
       <c r="J7">
-        <v>1.017888135745684</v>
+        <v>1.018327117199637</v>
       </c>
       <c r="K7">
-        <v>1.028423123230295</v>
+        <v>1.028602138595759</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.028149206374073</v>
+        <v>1.028341708873183</v>
       </c>
       <c r="N7">
-        <v>1.00997317838453</v>
+        <v>1.012157551578886</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.030850533462289</v>
+        <v>1.031002888342761</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.031186303536916</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.03132356448385</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019613614222137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9940281597980816</v>
+        <v>0.99464754426774</v>
       </c>
       <c r="D8">
-        <v>1.015775880819283</v>
+        <v>1.016159001501578</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.014513794461661</v>
+        <v>1.014781992080551</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04114367569761</v>
+        <v>1.04130447543078</v>
       </c>
       <c r="J8">
-        <v>1.015811022146477</v>
+        <v>1.016412157434323</v>
       </c>
       <c r="K8">
-        <v>1.02674631527054</v>
+        <v>1.027124448646294</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.02550069160605</v>
+        <v>1.025765386555083</v>
       </c>
       <c r="N8">
-        <v>1.009270543302585</v>
+        <v>1.011695150543227</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.028754379872718</v>
+        <v>1.028963871634002</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.030005250515505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.030283770515214</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019352591030398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9859094389168789</v>
+        <v>0.9868198001556867</v>
       </c>
       <c r="D9">
-        <v>1.010702953853414</v>
+        <v>1.01144355595433</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.007680084821971</v>
+        <v>1.008075528186849</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.040035308696202</v>
+        <v>1.040344430016451</v>
       </c>
       <c r="J9">
-        <v>1.011969774914641</v>
+        <v>1.012846727043389</v>
       </c>
       <c r="K9">
-        <v>1.023624737398706</v>
+        <v>1.024353658305712</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.02064977491685</v>
+        <v>1.021038930352858</v>
       </c>
       <c r="N9">
-        <v>1.007969536971528</v>
+        <v>1.010744353321826</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.024915129905851</v>
+        <v>1.025223127125039</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.027794826091897</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028321105090973</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018838713609726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9803714973999053</v>
+        <v>0.9815194534708404</v>
       </c>
       <c r="D10">
-        <v>1.007271423452729</v>
+        <v>1.008281741255301</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.003298847860425</v>
+        <v>1.003798064101741</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.039244602850726</v>
+        <v>1.039665597223978</v>
       </c>
       <c r="J10">
-        <v>1.009386126913976</v>
+        <v>1.010485980144684</v>
       </c>
       <c r="K10">
-        <v>1.021510619600466</v>
+        <v>1.022503059128156</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.017608794945395</v>
+        <v>1.018099080273913</v>
       </c>
       <c r="N10">
-        <v>1.007098484947057</v>
+        <v>1.010229001634057</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.022560791801519</v>
+        <v>1.022948804497133</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.026316998052887</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.027031282370155</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.01849065198067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9787117141340176</v>
+        <v>0.9799684976282337</v>
       </c>
       <c r="D11">
-        <v>1.006321834494051</v>
+        <v>1.007429907613917</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.00392019086883</v>
+        <v>1.00446254632618</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.039123710556814</v>
+        <v>1.039584319994667</v>
       </c>
       <c r="J11">
-        <v>1.008997733624154</v>
+        <v>1.010199024940448</v>
       </c>
       <c r="K11">
-        <v>1.021125506979422</v>
+        <v>1.022213053925542</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.018768554872764</v>
+        <v>1.019300793411724</v>
       </c>
       <c r="N11">
-        <v>1.007001994413982</v>
+        <v>1.010406408691005</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023922290927069</v>
+        <v>1.0243432857022</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.026077947952995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.026862683327762</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018480293728841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9783555518984977</v>
+        <v>0.9796381569532071</v>
       </c>
       <c r="D12">
-        <v>1.006153713559113</v>
+        <v>1.007279193223239</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.005001166783186</v>
+        <v>1.005551538238508</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I12">
-        <v>1.039156382183812</v>
+        <v>1.039623131958931</v>
       </c>
       <c r="J12">
-        <v>1.009105056317856</v>
+        <v>1.01032998456134</v>
       </c>
       <c r="K12">
-        <v>1.021163960184991</v>
+        <v>1.022268251620735</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.020033175482417</v>
+        <v>1.020573146841954</v>
       </c>
       <c r="N12">
-        <v>1.007065607704513</v>
+        <v>1.010563189655555</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.025253626864794</v>
+        <v>1.025680589472124</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026105136227699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026901709851841</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018521067188227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9789852213538264</v>
+        <v>0.9802201444540083</v>
       </c>
       <c r="D13">
-        <v>1.006586457142903</v>
+        <v>1.007660650847723</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.006533731964933</v>
+        <v>1.00706123832199</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.039318943039439</v>
+        <v>1.039763217937258</v>
       </c>
       <c r="J13">
-        <v>1.009610398951698</v>
+        <v>1.010790091697695</v>
       </c>
       <c r="K13">
-        <v>1.021544935823752</v>
+        <v>1.02259899591421</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.021493200318744</v>
+        <v>1.022010811262676</v>
       </c>
       <c r="N13">
-        <v>1.007260859386349</v>
+        <v>1.010681642914139</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026687964195511</v>
+        <v>1.027097141108211</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026371982372994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.027132792719968</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018607009215493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.979863648628871</v>
+        <v>0.9810333407692035</v>
       </c>
       <c r="D14">
-        <v>1.007157102053754</v>
+        <v>1.0081657010418</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.007784614083094</v>
+        <v>1.008282963533765</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.039489455384258</v>
+        <v>1.039905744665014</v>
       </c>
       <c r="J14">
-        <v>1.01013568771006</v>
+        <v>1.01125382598512</v>
       </c>
       <c r="K14">
-        <v>1.021962089903968</v>
+        <v>1.022952018931043</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.022577980465247</v>
+        <v>1.023067113961474</v>
       </c>
       <c r="N14">
-        <v>1.007454284298037</v>
+        <v>1.010746423023752</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027720447667672</v>
+        <v>1.028107059957123</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.026668371838007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027383970859887</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018686820246774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9803040575763722</v>
+        <v>0.9814422407638621</v>
       </c>
       <c r="D15">
-        <v>1.007436998465489</v>
+        <v>1.008414700884593</v>
       </c>
       <c r="E15">
         <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.008237103212228</v>
+        <v>1.008721766695514</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.039563672821116</v>
+        <v>1.039966971683324</v>
       </c>
       <c r="J15">
-        <v>1.01036359766795</v>
+        <v>1.011452054144545</v>
       </c>
       <c r="K15">
-        <v>1.022148857643661</v>
+        <v>1.02310859827081</v>
       </c>
       <c r="L15">
         <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.022934259949188</v>
+        <v>1.023410032200998</v>
       </c>
       <c r="N15">
-        <v>1.007534825703286</v>
+        <v>1.010760494869787</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.028039903215046</v>
+        <v>1.028415944761974</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026806364922257</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027501186474024</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018719106796846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9825097437662265</v>
+        <v>0.9835046174006242</v>
       </c>
       <c r="D16">
-        <v>1.008794934905313</v>
+        <v>1.009632709634576</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.009838106619476</v>
+        <v>1.010261874682928</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.039876917501105</v>
+        <v>1.040222294996922</v>
       </c>
       <c r="J16">
-        <v>1.011355833542614</v>
+        <v>1.012309400631379</v>
       </c>
       <c r="K16">
-        <v>1.02297097255337</v>
+        <v>1.023794020288017</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.02399581149323</v>
+        <v>1.024412146237807</v>
       </c>
       <c r="N16">
-        <v>1.007864774608495</v>
+        <v>1.010780217812785</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028839892623726</v>
+        <v>1.029168965363963</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027390847797225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.027989318707363</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018843720682439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.98375078095553</v>
+        <v>0.9846782041656292</v>
       </c>
       <c r="D17">
-        <v>1.009544632944929</v>
+        <v>1.010314913347202</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.010416534442137</v>
+        <v>1.010812195120984</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.040027602324094</v>
+        <v>1.040345386510754</v>
       </c>
       <c r="J17">
-        <v>1.01184803896385</v>
+        <v>1.012738181670905</v>
       </c>
       <c r="K17">
-        <v>1.023387354528433</v>
+        <v>1.024144470057491</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.024244356280791</v>
+        <v>1.024633266546911</v>
       </c>
       <c r="N17">
-        <v>1.008018565788557</v>
+        <v>1.010792018258899</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028906105270425</v>
+        <v>1.029213532611833</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027687872165923</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028239972704328</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018899334578166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9842382113915817</v>
+        <v>0.9851478079453713</v>
       </c>
       <c r="D18">
-        <v>1.009807965664037</v>
+        <v>1.01056133382083</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.009998183694752</v>
+        <v>1.010387541537671</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.040040182301035</v>
+        <v>1.040351631467514</v>
       </c>
       <c r="J18">
-        <v>1.011910195509599</v>
+        <v>1.012783898497289</v>
       </c>
       <c r="K18">
-        <v>1.023459521538806</v>
+        <v>1.024200221513985</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.023646538678694</v>
+        <v>1.024029349454862</v>
       </c>
       <c r="N18">
-        <v>1.008018585422736</v>
+        <v>1.010747747676024</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.028193199946548</v>
+        <v>1.02849587000135</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027727126871851</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028266489038987</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018890221920831</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9840234246979307</v>
+        <v>0.9849548790446083</v>
       </c>
       <c r="D19">
-        <v>1.009629686206013</v>
+        <v>1.010408969734922</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.008572949954707</v>
+        <v>1.008973764213716</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.039929785677759</v>
+        <v>1.040252869132474</v>
       </c>
       <c r="J19">
-        <v>1.011565651726703</v>
+        <v>1.01246054445371</v>
       </c>
       <c r="K19">
-        <v>1.023220580339331</v>
+        <v>1.023986824559516</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.022181567355903</v>
+        <v>1.022575653642919</v>
       </c>
       <c r="N19">
-        <v>1.007876505138593</v>
+        <v>1.010630284552885</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.026704927267587</v>
+        <v>1.027016616771096</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027564654685572</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028122703198818</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018822714817905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.981831292668493</v>
+        <v>0.9828934701616042</v>
       </c>
       <c r="D20">
-        <v>1.008191599678527</v>
+        <v>1.009114833821187</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.004454026887261</v>
+        <v>1.00491578561226</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.039467767155139</v>
+        <v>1.039852245839931</v>
       </c>
       <c r="J20">
-        <v>1.010081010604876</v>
+        <v>1.011100127561176</v>
       </c>
       <c r="K20">
-        <v>1.022091922932924</v>
+        <v>1.022999281222613</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.018419007141169</v>
+        <v>1.018872744110831</v>
       </c>
       <c r="N20">
-        <v>1.007335211313203</v>
+        <v>1.010296876551936</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.023191246732764</v>
+        <v>1.023550339445905</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.026770601864445</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027428819374638</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018586714764352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.977520025018741</v>
+        <v>0.9788834513074199</v>
       </c>
       <c r="D21">
-        <v>1.005510774540213</v>
+        <v>1.006727638403534</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.000678203926807</v>
+        <v>1.001272370160336</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.03880875352735</v>
+        <v>1.039316784627556</v>
       </c>
       <c r="J21">
-        <v>1.007988648333746</v>
+        <v>1.009291368617335</v>
       </c>
       <c r="K21">
-        <v>1.020388490364388</v>
+        <v>1.021582664818177</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.015646738908798</v>
+        <v>1.016229677128122</v>
       </c>
       <c r="N21">
-        <v>1.006623305081033</v>
+        <v>1.010225913352041</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.020955462666704</v>
+        <v>1.021416831993841</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025569446761215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.026430788304254</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018314555295367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.974795948331877</v>
+        <v>0.9763498177409901</v>
       </c>
       <c r="D22">
-        <v>1.003819251251613</v>
+        <v>1.005221869848239</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9984257181927926</v>
+        <v>0.9991035768376878</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038385521188388</v>
+        <v>1.038971707547175</v>
       </c>
       <c r="J22">
-        <v>1.006683663121763</v>
+        <v>1.008164317236727</v>
       </c>
       <c r="K22">
-        <v>1.019315425823751</v>
+        <v>1.0206905854276</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.014028426556746</v>
+        <v>1.014692812987072</v>
       </c>
       <c r="N22">
-        <v>1.006180198705036</v>
+        <v>1.010180154847926</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.019674639713283</v>
+        <v>1.020200472608905</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024797047923355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.025785061754628</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018142025243881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9762371148907059</v>
+        <v>0.9776767547916394</v>
       </c>
       <c r="D23">
-        <v>1.004707719193427</v>
+        <v>1.00600229173557</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9996197264620876</v>
+        <v>1.000247409286794</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.038606730251208</v>
+        <v>1.039147354294418</v>
       </c>
       <c r="J23">
-        <v>1.007370411365807</v>
+        <v>1.008744207710449</v>
       </c>
       <c r="K23">
-        <v>1.019875824681332</v>
+        <v>1.021145694027352</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.014885734150107</v>
+        <v>1.01550126864804</v>
       </c>
       <c r="N23">
-        <v>1.006412536565308</v>
+        <v>1.010159392992846</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.02035316122154</v>
+        <v>1.020840329462305</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.025183526925408</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.026096153654469</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018228338060081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9818117130940031</v>
+        <v>0.9828760068533334</v>
       </c>
       <c r="D24">
-        <v>1.008163618771782</v>
+        <v>1.009089469785791</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.004251183370256</v>
+        <v>1.004714226710004</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.039447305779063</v>
+        <v>1.039833041525462</v>
       </c>
       <c r="J24">
-        <v>1.010028341017737</v>
+        <v>1.011049547042061</v>
       </c>
       <c r="K24">
-        <v>1.022048872942241</v>
+        <v>1.022958822493676</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.01820405250923</v>
+        <v>1.018659057948758</v>
       </c>
       <c r="N24">
-        <v>1.007313130576223</v>
+        <v>1.010276087491874</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.02297945877076</v>
+        <v>1.023339574013891</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.026712418884842</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.02736980250977</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018573254104384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9880608881652005</v>
+        <v>0.9888832546803779</v>
       </c>
       <c r="D25">
-        <v>1.012054725259962</v>
+        <v>1.012693249432568</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.009478825735032</v>
+        <v>1.009835749392607</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.040344839441052</v>
+        <v>1.040611481237579</v>
       </c>
       <c r="J25">
-        <v>1.012996841487882</v>
+        <v>1.013790622188461</v>
       </c>
       <c r="K25">
-        <v>1.024468745557698</v>
+        <v>1.025097663585354</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.021931755845943</v>
+        <v>1.022283272960328</v>
       </c>
       <c r="N25">
-        <v>1.008318757334401</v>
+        <v>1.010966625924655</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.025929753678382</v>
+        <v>1.026207961625822</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.028420537545058</v>
+        <v>1.028878904217152</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018980321361113</v>
       </c>
     </row>
   </sheetData>
